--- a/Predictions2018_2019.xlsx
+++ b/Predictions2018_2019.xlsx
@@ -1,20 +1,33 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="20827"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\adams\OneDrive - University of Waterloo\Github\Sports-Analytics-Projects\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C42DBEA3-9AC7-470D-B03C-4BA480E7DA76}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
+    <workbookView xWindow="240" yWindow="20" windowWidth="16100" windowHeight="9660" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr calcId="179021"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="434" uniqueCount="434">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="436" uniqueCount="435">
   <si>
     <t>Fantasy_Pts</t>
   </si>
@@ -31,9 +44,6 @@
     <t>Damian Lillard</t>
   </si>
   <si>
-    <t>Russell Westbrook</t>
-  </si>
-  <si>
     <t>Kyrie Irving</t>
   </si>
   <si>
@@ -118,9 +128,6 @@
     <t>Chris Paul</t>
   </si>
   <si>
-    <t>Jimmy Butler</t>
-  </si>
-  <si>
     <t>Josh Richardson</t>
   </si>
   <si>
@@ -148,9 +155,6 @@
     <t>Dwight Powell</t>
   </si>
   <si>
-    <t>Julius Randle</t>
-  </si>
-  <si>
     <t>CJ McCollum</t>
   </si>
   <si>
@@ -1316,13 +1320,25 @@
   </si>
   <si>
     <t>Gordon Hayward</t>
+  </si>
+  <si>
+    <t>Player</t>
+  </si>
+  <si>
+    <t>Rank</t>
+  </si>
+  <si>
+    <t xml:space="preserve">clin </t>
+  </si>
+  <si>
+    <t xml:space="preserve">terry </t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1338,13 +1354,27 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="2">
@@ -1374,9 +1404,17 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
@@ -1385,6 +1423,14 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -1431,7 +1477,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1463,9 +1509,27 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1497,6 +1561,24 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -1672,3479 +1754,5222 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B434"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:C434"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E48" sqref="E48"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="24.90625" customWidth="1"/>
+    <col min="3" max="3" width="18.36328125" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:2">
-      <c r="B1" s="1" t="s">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A1" s="2" t="s">
+        <v>431</v>
+      </c>
+      <c r="B1" s="4" t="s">
+        <v>432</v>
+      </c>
+      <c r="C1" s="3" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:2">
-      <c r="A2" s="1" t="s">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A2" s="5" t="s">
         <v>1</v>
       </c>
       <c r="B2">
+        <v>1</v>
+      </c>
+      <c r="C2">
         <v>5757.74951171875</v>
       </c>
     </row>
-    <row r="3" spans="1:2">
-      <c r="A3" s="1" t="s">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A3" s="5" t="s">
         <v>2</v>
       </c>
       <c r="B3">
+        <f>B2+1</f>
+        <v>2</v>
+      </c>
+      <c r="C3">
         <v>5289.17529296875</v>
       </c>
     </row>
-    <row r="4" spans="1:2">
-      <c r="A4" s="1" t="s">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A4" s="5" t="s">
         <v>3</v>
       </c>
       <c r="B4">
+        <f t="shared" ref="B4:B67" si="0">B3+1</f>
+        <v>3</v>
+      </c>
+      <c r="C4">
         <v>4518.5361328125</v>
       </c>
     </row>
-    <row r="5" spans="1:2">
-      <c r="A5" s="1" t="s">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A5" s="5" t="s">
         <v>4</v>
       </c>
       <c r="B5">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+      <c r="C5">
         <v>4498.37060546875</v>
       </c>
     </row>
-    <row r="6" spans="1:2">
-      <c r="A6" s="1" t="s">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A6" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="B6">
+        <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="B6">
+      <c r="C6">
         <v>4277.6708984375</v>
       </c>
     </row>
-    <row r="7" spans="1:2">
-      <c r="A7" s="1" t="s">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A7" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="B7">
+        <f t="shared" si="0"/>
         <v>6</v>
       </c>
-      <c r="B7">
+      <c r="C7">
         <v>3805.579345703125</v>
       </c>
     </row>
-    <row r="8" spans="1:2">
-      <c r="A8" s="1" t="s">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A8" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="B8">
+        <f t="shared" si="0"/>
         <v>7</v>
       </c>
-      <c r="B8">
+      <c r="C8">
         <v>3740.898681640625</v>
       </c>
     </row>
-    <row r="9" spans="1:2">
-      <c r="A9" s="1" t="s">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A9" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="B9">
+        <f t="shared" si="0"/>
         <v>8</v>
       </c>
-      <c r="B9">
+      <c r="C9">
         <v>3689.438232421875</v>
       </c>
     </row>
-    <row r="10" spans="1:2">
-      <c r="A10" s="1" t="s">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A10" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="B10">
+        <f t="shared" si="0"/>
         <v>9</v>
       </c>
-      <c r="B10">
+      <c r="C10">
         <v>3680.71337890625</v>
       </c>
     </row>
-    <row r="11" spans="1:2">
-      <c r="A11" s="1" t="s">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A11" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="B11">
+        <f t="shared" si="0"/>
         <v>10</v>
       </c>
-      <c r="B11">
+      <c r="C11">
         <v>3635.582275390625</v>
       </c>
     </row>
-    <row r="12" spans="1:2">
-      <c r="A12" s="1" t="s">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A12" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="B12">
+        <f t="shared" si="0"/>
         <v>11</v>
       </c>
-      <c r="B12">
+      <c r="C12">
         <v>3574.627197265625</v>
       </c>
     </row>
-    <row r="13" spans="1:2">
-      <c r="A13" s="1" t="s">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A13" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="B13">
+        <f t="shared" si="0"/>
         <v>12</v>
       </c>
-      <c r="B13">
+      <c r="C13">
         <v>3456.190673828125</v>
       </c>
     </row>
-    <row r="14" spans="1:2">
-      <c r="A14" s="1" t="s">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A14" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="B14">
+        <f t="shared" si="0"/>
         <v>13</v>
       </c>
-      <c r="B14">
+      <c r="C14">
         <v>3226.142333984375</v>
       </c>
     </row>
-    <row r="15" spans="1:2">
-      <c r="A15" s="1" t="s">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A15" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="B15">
+        <f t="shared" si="0"/>
         <v>14</v>
       </c>
-      <c r="B15">
+      <c r="C15">
         <v>3212.968505859375</v>
       </c>
     </row>
-    <row r="16" spans="1:2">
-      <c r="A16" s="1" t="s">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A16" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="B16">
+        <f t="shared" si="0"/>
         <v>15</v>
       </c>
-      <c r="B16">
+      <c r="C16">
         <v>3203.594970703125</v>
       </c>
     </row>
-    <row r="17" spans="1:2">
-      <c r="A17" s="1" t="s">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A17" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="B17">
+        <f t="shared" si="0"/>
         <v>16</v>
       </c>
-      <c r="B17">
+      <c r="C17">
         <v>3120.75244140625</v>
       </c>
     </row>
-    <row r="18" spans="1:2">
-      <c r="A18" s="1" t="s">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A18" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="B18">
+        <f t="shared" si="0"/>
         <v>17</v>
       </c>
-      <c r="B18">
+      <c r="C18">
         <v>3098.0205078125</v>
       </c>
     </row>
-    <row r="19" spans="1:2">
-      <c r="A19" s="1" t="s">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A19" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="B19">
+        <f t="shared" si="0"/>
         <v>18</v>
       </c>
-      <c r="B19">
+      <c r="C19">
         <v>3071.049560546875</v>
       </c>
     </row>
-    <row r="20" spans="1:2">
-      <c r="A20" s="1" t="s">
+    <row r="20" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A20" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="B20">
+        <f t="shared" si="0"/>
         <v>19</v>
       </c>
-      <c r="B20">
+      <c r="C20">
         <v>3038.742919921875</v>
       </c>
     </row>
-    <row r="21" spans="1:2">
+    <row r="21" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A21" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="B21">
+        <f t="shared" si="0"/>
         <v>20</v>
       </c>
-      <c r="B21">
+      <c r="C21">
         <v>2981.727294921875</v>
       </c>
     </row>
-    <row r="22" spans="1:2">
-      <c r="A22" s="1" t="s">
+    <row r="22" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A22" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="B22">
+        <f t="shared" si="0"/>
         <v>21</v>
       </c>
-      <c r="B22">
+      <c r="C22">
         <v>2916.5107421875</v>
       </c>
     </row>
-    <row r="23" spans="1:2">
-      <c r="A23" s="1" t="s">
+    <row r="23" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A23" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="B23">
+        <f t="shared" si="0"/>
         <v>22</v>
       </c>
-      <c r="B23">
+      <c r="C23">
         <v>2883.552001953125</v>
       </c>
     </row>
-    <row r="24" spans="1:2">
-      <c r="A24" s="1" t="s">
+    <row r="24" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A24" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="B24">
+        <f t="shared" si="0"/>
         <v>23</v>
       </c>
-      <c r="B24">
+      <c r="C24">
         <v>2856.50732421875</v>
       </c>
     </row>
-    <row r="25" spans="1:2">
-      <c r="A25" s="1" t="s">
+    <row r="25" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A25" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="B25">
+        <f t="shared" si="0"/>
         <v>24</v>
       </c>
-      <c r="B25">
+      <c r="C25">
         <v>2845.677001953125</v>
       </c>
     </row>
-    <row r="26" spans="1:2">
+    <row r="26" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A26" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="B26">
+        <f t="shared" si="0"/>
         <v>25</v>
       </c>
-      <c r="B26">
+      <c r="C26">
         <v>2834.088134765625</v>
       </c>
     </row>
-    <row r="27" spans="1:2">
-      <c r="A27" s="1" t="s">
+    <row r="27" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A27" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="B27">
+        <f t="shared" si="0"/>
         <v>26</v>
       </c>
-      <c r="B27">
+      <c r="C27">
         <v>2659.985595703125</v>
       </c>
     </row>
-    <row r="28" spans="1:2">
-      <c r="A28" s="1" t="s">
+    <row r="28" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A28" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="B28">
+        <f t="shared" si="0"/>
         <v>27</v>
       </c>
-      <c r="B28">
+      <c r="C28">
         <v>2655.843994140625</v>
       </c>
     </row>
-    <row r="29" spans="1:2">
-      <c r="A29" s="1" t="s">
+    <row r="29" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A29" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="B29">
+        <f t="shared" si="0"/>
         <v>28</v>
       </c>
-      <c r="B29">
+      <c r="C29">
         <v>2635.707763671875</v>
       </c>
     </row>
-    <row r="30" spans="1:2">
-      <c r="A30" s="1" t="s">
+    <row r="30" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A30" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="B30">
+        <f t="shared" si="0"/>
         <v>29</v>
       </c>
-      <c r="B30">
+      <c r="C30">
         <v>2630.296630859375</v>
       </c>
     </row>
-    <row r="31" spans="1:2">
-      <c r="A31" s="1" t="s">
+    <row r="31" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A31" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="B31">
+        <f t="shared" si="0"/>
         <v>30</v>
       </c>
-      <c r="B31">
+      <c r="C31">
         <v>2629.456787109375</v>
       </c>
     </row>
-    <row r="32" spans="1:2">
-      <c r="A32" s="1" t="s">
+    <row r="32" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A32" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="B32">
+        <f t="shared" si="0"/>
         <v>31</v>
       </c>
-      <c r="B32">
+      <c r="C32">
         <v>2611.574951171875</v>
       </c>
     </row>
-    <row r="33" spans="1:2">
-      <c r="A33" s="1" t="s">
+    <row r="33" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A33" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="B33">
+        <f t="shared" si="0"/>
         <v>32</v>
       </c>
-      <c r="B33">
+      <c r="C33">
         <v>2611.45849609375</v>
       </c>
     </row>
-    <row r="34" spans="1:2">
-      <c r="A34" s="1" t="s">
+    <row r="34" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A34" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="B34">
+        <f t="shared" si="0"/>
         <v>33</v>
       </c>
-      <c r="B34">
+      <c r="C34">
         <v>2576.39990234375</v>
       </c>
     </row>
-    <row r="35" spans="1:2">
-      <c r="A35" s="1" t="s">
+    <row r="35" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A35" s="5" t="s">
+        <v>433</v>
+      </c>
+      <c r="B35">
+        <f t="shared" si="0"/>
         <v>34</v>
       </c>
-      <c r="B35">
+      <c r="C35">
         <v>2570.5888671875</v>
       </c>
     </row>
-    <row r="36" spans="1:2">
+    <row r="36" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A36" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="B36">
+        <f t="shared" si="0"/>
         <v>35</v>
       </c>
-      <c r="B36">
+      <c r="C36">
         <v>2552.271728515625</v>
       </c>
     </row>
-    <row r="37" spans="1:2">
-      <c r="A37" s="1" t="s">
+    <row r="37" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A37" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="B37">
+        <f t="shared" si="0"/>
         <v>36</v>
       </c>
-      <c r="B37">
+      <c r="C37">
         <v>2524.505859375</v>
       </c>
     </row>
-    <row r="38" spans="1:2">
+    <row r="38" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A38" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="B38">
+        <f t="shared" si="0"/>
         <v>37</v>
       </c>
-      <c r="B38">
+      <c r="C38">
         <v>2517.710205078125</v>
       </c>
     </row>
-    <row r="39" spans="1:2">
+    <row r="39" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A39" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="B39">
+        <f t="shared" si="0"/>
         <v>38</v>
       </c>
-      <c r="B39">
+      <c r="C39">
         <v>2508.535400390625</v>
       </c>
     </row>
-    <row r="40" spans="1:2">
-      <c r="A40" s="1" t="s">
+    <row r="40" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A40" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="B40">
+        <f t="shared" si="0"/>
         <v>39</v>
       </c>
-      <c r="B40">
+      <c r="C40">
         <v>2473.897216796875</v>
       </c>
     </row>
-    <row r="41" spans="1:2">
-      <c r="A41" s="1" t="s">
+    <row r="41" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A41" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="B41">
+        <f t="shared" si="0"/>
         <v>40</v>
       </c>
-      <c r="B41">
+      <c r="C41">
         <v>2470.919921875</v>
       </c>
     </row>
-    <row r="42" spans="1:2">
-      <c r="A42" s="1" t="s">
+    <row r="42" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A42" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="B42">
+        <f t="shared" si="0"/>
         <v>41</v>
       </c>
-      <c r="B42">
+      <c r="C42">
         <v>2400.242919921875</v>
       </c>
     </row>
-    <row r="43" spans="1:2">
-      <c r="A43" s="1" t="s">
+    <row r="43" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A43" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="B43">
+        <f t="shared" si="0"/>
         <v>42</v>
       </c>
-      <c r="B43">
+      <c r="C43">
         <v>2396.863525390625</v>
       </c>
     </row>
-    <row r="44" spans="1:2">
-      <c r="A44" s="1" t="s">
+    <row r="44" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A44" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="B44">
+        <f t="shared" si="0"/>
         <v>43</v>
       </c>
-      <c r="B44">
+      <c r="C44">
         <v>2374.795654296875</v>
       </c>
     </row>
-    <row r="45" spans="1:2">
-      <c r="A45" s="1" t="s">
+    <row r="45" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A45" s="5" t="s">
+        <v>434</v>
+      </c>
+      <c r="B45">
+        <f t="shared" si="0"/>
         <v>44</v>
       </c>
-      <c r="B45">
+      <c r="C45">
         <v>2351.157470703125</v>
       </c>
     </row>
-    <row r="46" spans="1:2">
-      <c r="A46" s="1" t="s">
+    <row r="46" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A46" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="B46">
+        <f t="shared" si="0"/>
         <v>45</v>
       </c>
-      <c r="B46">
+      <c r="C46">
         <v>2345.922119140625</v>
       </c>
     </row>
-    <row r="47" spans="1:2">
+    <row r="47" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A47" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="B47">
+        <f t="shared" si="0"/>
         <v>46</v>
       </c>
-      <c r="B47">
+      <c r="C47">
         <v>2339.608154296875</v>
       </c>
     </row>
-    <row r="48" spans="1:2">
+    <row r="48" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A48" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="B48">
+        <f t="shared" si="0"/>
         <v>47</v>
       </c>
-      <c r="B48">
+      <c r="C48">
         <v>2324.73486328125</v>
       </c>
     </row>
-    <row r="49" spans="1:2">
-      <c r="A49" s="1" t="s">
+    <row r="49" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A49" s="5" t="s">
+        <v>45</v>
+      </c>
+      <c r="B49">
+        <f t="shared" si="0"/>
         <v>48</v>
       </c>
-      <c r="B49">
+      <c r="C49">
         <v>2319.20849609375</v>
       </c>
     </row>
-    <row r="50" spans="1:2">
+    <row r="50" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A50" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="B50">
+        <f t="shared" si="0"/>
         <v>49</v>
       </c>
-      <c r="B50">
+      <c r="C50">
         <v>2245.935791015625</v>
       </c>
     </row>
-    <row r="51" spans="1:2">
+    <row r="51" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A51" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="B51">
+        <f t="shared" si="0"/>
         <v>50</v>
       </c>
-      <c r="B51">
+      <c r="C51">
         <v>2240.359619140625</v>
       </c>
     </row>
-    <row r="52" spans="1:2">
+    <row r="52" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A52" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="B52">
+        <f t="shared" si="0"/>
         <v>51</v>
       </c>
-      <c r="B52">
+      <c r="C52">
         <v>2226.661376953125</v>
       </c>
     </row>
-    <row r="53" spans="1:2">
+    <row r="53" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A53" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="B53">
+        <f t="shared" si="0"/>
         <v>52</v>
       </c>
-      <c r="B53">
+      <c r="C53">
         <v>2180.8916015625</v>
       </c>
     </row>
-    <row r="54" spans="1:2">
-      <c r="A54" s="1" t="s">
+    <row r="54" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A54" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="B54">
+        <f t="shared" si="0"/>
         <v>53</v>
       </c>
-      <c r="B54">
+      <c r="C54">
         <v>2165.135498046875</v>
       </c>
     </row>
-    <row r="55" spans="1:2">
+    <row r="55" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A55" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="B55">
+        <f t="shared" si="0"/>
         <v>54</v>
       </c>
-      <c r="B55">
+      <c r="C55">
         <v>2155.938720703125</v>
       </c>
     </row>
-    <row r="56" spans="1:2">
-      <c r="A56" s="1" t="s">
+    <row r="56" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A56" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="B56">
+        <f t="shared" si="0"/>
         <v>55</v>
       </c>
-      <c r="B56">
+      <c r="C56">
         <v>2154.212158203125</v>
       </c>
     </row>
-    <row r="57" spans="1:2">
+    <row r="57" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A57" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="B57">
+        <f t="shared" si="0"/>
         <v>56</v>
       </c>
-      <c r="B57">
+      <c r="C57">
         <v>2149.32568359375</v>
       </c>
     </row>
-    <row r="58" spans="1:2">
-      <c r="A58" s="1" t="s">
+    <row r="58" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A58" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="B58">
+        <f t="shared" si="0"/>
         <v>57</v>
       </c>
-      <c r="B58">
+      <c r="C58">
         <v>2098.486083984375</v>
       </c>
     </row>
-    <row r="59" spans="1:2">
+    <row r="59" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A59" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="B59">
+        <f t="shared" si="0"/>
         <v>58</v>
       </c>
-      <c r="B59">
+      <c r="C59">
         <v>2075.345703125</v>
       </c>
     </row>
-    <row r="60" spans="1:2">
+    <row r="60" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A60" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="B60">
+        <f t="shared" si="0"/>
         <v>59</v>
       </c>
-      <c r="B60">
+      <c r="C60">
         <v>2074.525146484375</v>
       </c>
     </row>
-    <row r="61" spans="1:2">
+    <row r="61" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A61" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="B61">
+        <f t="shared" si="0"/>
         <v>60</v>
       </c>
-      <c r="B61">
+      <c r="C61">
         <v>2049.124267578125</v>
       </c>
     </row>
-    <row r="62" spans="1:2">
+    <row r="62" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A62" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="B62">
+        <f t="shared" si="0"/>
         <v>61</v>
       </c>
-      <c r="B62">
+      <c r="C62">
         <v>2049.089111328125</v>
       </c>
     </row>
-    <row r="63" spans="1:2">
+    <row r="63" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A63" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="B63">
+        <f t="shared" si="0"/>
         <v>62</v>
       </c>
-      <c r="B63">
+      <c r="C63">
         <v>2040.95654296875</v>
       </c>
     </row>
-    <row r="64" spans="1:2">
+    <row r="64" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A64" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="B64">
+        <f t="shared" si="0"/>
         <v>63</v>
       </c>
-      <c r="B64">
+      <c r="C64">
         <v>2035.646240234375</v>
       </c>
     </row>
-    <row r="65" spans="1:2">
+    <row r="65" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A65" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="B65">
+        <f t="shared" si="0"/>
         <v>64</v>
       </c>
-      <c r="B65">
+      <c r="C65">
         <v>2030.399169921875</v>
       </c>
     </row>
-    <row r="66" spans="1:2">
+    <row r="66" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A66" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="B66">
+        <f t="shared" si="0"/>
         <v>65</v>
       </c>
-      <c r="B66">
+      <c r="C66">
         <v>2019.49169921875</v>
       </c>
     </row>
-    <row r="67" spans="1:2">
+    <row r="67" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A67" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="B67">
+        <f t="shared" si="0"/>
         <v>66</v>
       </c>
-      <c r="B67">
+      <c r="C67">
         <v>2015.35107421875</v>
       </c>
     </row>
-    <row r="68" spans="1:2">
+    <row r="68" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A68" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="B68">
+        <f t="shared" ref="B68:B131" si="1">B67+1</f>
         <v>67</v>
       </c>
-      <c r="B68">
+      <c r="C68">
         <v>2002.255493164062</v>
       </c>
     </row>
-    <row r="69" spans="1:2">
+    <row r="69" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A69" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="B69">
+        <f t="shared" si="1"/>
         <v>68</v>
       </c>
-      <c r="B69">
+      <c r="C69">
         <v>1983.86376953125</v>
       </c>
     </row>
-    <row r="70" spans="1:2">
+    <row r="70" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A70" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="B70">
+        <f t="shared" si="1"/>
         <v>69</v>
       </c>
-      <c r="B70">
+      <c r="C70">
         <v>1963.838134765625</v>
       </c>
     </row>
-    <row r="71" spans="1:2">
+    <row r="71" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A71" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="B71">
+        <f t="shared" si="1"/>
         <v>70</v>
       </c>
-      <c r="B71">
+      <c r="C71">
         <v>1963.16748046875</v>
       </c>
     </row>
-    <row r="72" spans="1:2">
+    <row r="72" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A72" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="B72">
+        <f t="shared" si="1"/>
         <v>71</v>
       </c>
-      <c r="B72">
+      <c r="C72">
         <v>1962.0986328125</v>
       </c>
     </row>
-    <row r="73" spans="1:2">
+    <row r="73" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A73" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="B73">
+        <f t="shared" si="1"/>
         <v>72</v>
       </c>
-      <c r="B73">
+      <c r="C73">
         <v>1950.559814453125</v>
       </c>
     </row>
-    <row r="74" spans="1:2">
-      <c r="A74" s="1" t="s">
+    <row r="74" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A74" s="5" t="s">
+        <v>70</v>
+      </c>
+      <c r="B74">
+        <f t="shared" si="1"/>
         <v>73</v>
       </c>
-      <c r="B74">
+      <c r="C74">
         <v>1930.243774414062</v>
       </c>
     </row>
-    <row r="75" spans="1:2">
+    <row r="75" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A75" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="B75">
+        <f t="shared" si="1"/>
         <v>74</v>
       </c>
-      <c r="B75">
+      <c r="C75">
         <v>1922.610107421875</v>
       </c>
     </row>
-    <row r="76" spans="1:2">
+    <row r="76" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A76" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="B76">
+        <f t="shared" si="1"/>
         <v>75</v>
       </c>
-      <c r="B76">
+      <c r="C76">
         <v>1917.804931640625</v>
       </c>
     </row>
-    <row r="77" spans="1:2">
+    <row r="77" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A77" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="B77">
+        <f t="shared" si="1"/>
         <v>76</v>
       </c>
-      <c r="B77">
+      <c r="C77">
         <v>1916.939208984375</v>
       </c>
     </row>
-    <row r="78" spans="1:2">
+    <row r="78" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A78" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="B78">
+        <f t="shared" si="1"/>
         <v>77</v>
       </c>
-      <c r="B78">
+      <c r="C78">
         <v>1901.253173828125</v>
       </c>
     </row>
-    <row r="79" spans="1:2">
+    <row r="79" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A79" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="B79">
+        <f t="shared" si="1"/>
         <v>78</v>
       </c>
-      <c r="B79">
+      <c r="C79">
         <v>1893.018920898438</v>
       </c>
     </row>
-    <row r="80" spans="1:2">
+    <row r="80" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A80" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="B80">
+        <f t="shared" si="1"/>
         <v>79</v>
       </c>
-      <c r="B80">
+      <c r="C80">
         <v>1891.58447265625</v>
       </c>
     </row>
-    <row r="81" spans="1:2">
-      <c r="A81" s="1" t="s">
+    <row r="81" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A81" s="5" t="s">
+        <v>77</v>
+      </c>
+      <c r="B81">
+        <f t="shared" si="1"/>
         <v>80</v>
       </c>
-      <c r="B81">
+      <c r="C81">
         <v>1883.196533203125</v>
       </c>
     </row>
-    <row r="82" spans="1:2">
+    <row r="82" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A82" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="B82">
+        <f t="shared" si="1"/>
         <v>81</v>
       </c>
-      <c r="B82">
+      <c r="C82">
         <v>1881.828491210938</v>
       </c>
     </row>
-    <row r="83" spans="1:2">
+    <row r="83" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A83" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="B83">
+        <f t="shared" si="1"/>
         <v>82</v>
       </c>
-      <c r="B83">
+      <c r="C83">
         <v>1880.733032226562</v>
       </c>
     </row>
-    <row r="84" spans="1:2">
+    <row r="84" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A84" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="B84">
+        <f t="shared" si="1"/>
         <v>83</v>
       </c>
-      <c r="B84">
+      <c r="C84">
         <v>1880.359741210938</v>
       </c>
     </row>
-    <row r="85" spans="1:2">
+    <row r="85" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A85" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="B85">
+        <f t="shared" si="1"/>
         <v>84</v>
       </c>
-      <c r="B85">
+      <c r="C85">
         <v>1879.397338867188</v>
       </c>
     </row>
-    <row r="86" spans="1:2">
+    <row r="86" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A86" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="B86">
+        <f t="shared" si="1"/>
         <v>85</v>
       </c>
-      <c r="B86">
+      <c r="C86">
         <v>1876.607788085938</v>
       </c>
     </row>
-    <row r="87" spans="1:2">
+    <row r="87" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A87" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="B87">
+        <f t="shared" si="1"/>
         <v>86</v>
       </c>
-      <c r="B87">
+      <c r="C87">
         <v>1853.45849609375</v>
       </c>
     </row>
-    <row r="88" spans="1:2">
-      <c r="A88" s="1" t="s">
+    <row r="88" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A88" s="5" t="s">
+        <v>84</v>
+      </c>
+      <c r="B88">
+        <f t="shared" si="1"/>
         <v>87</v>
       </c>
-      <c r="B88">
+      <c r="C88">
         <v>1839.938232421875</v>
       </c>
     </row>
-    <row r="89" spans="1:2">
+    <row r="89" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A89" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="B89">
+        <f t="shared" si="1"/>
         <v>88</v>
       </c>
-      <c r="B89">
+      <c r="C89">
         <v>1833.506103515625</v>
       </c>
     </row>
-    <row r="90" spans="1:2">
+    <row r="90" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A90" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="B90">
+        <f t="shared" si="1"/>
         <v>89</v>
       </c>
-      <c r="B90">
+      <c r="C90">
         <v>1811.99267578125</v>
       </c>
     </row>
-    <row r="91" spans="1:2">
+    <row r="91" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A91" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="B91">
+        <f t="shared" si="1"/>
         <v>90</v>
       </c>
-      <c r="B91">
+      <c r="C91">
         <v>1807.415283203125</v>
       </c>
     </row>
-    <row r="92" spans="1:2">
+    <row r="92" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A92" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="B92">
+        <f t="shared" si="1"/>
         <v>91</v>
       </c>
-      <c r="B92">
+      <c r="C92">
         <v>1788.215087890625</v>
       </c>
     </row>
-    <row r="93" spans="1:2">
+    <row r="93" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A93" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="B93">
+        <f t="shared" si="1"/>
         <v>92</v>
       </c>
-      <c r="B93">
+      <c r="C93">
         <v>1767.91650390625</v>
       </c>
     </row>
-    <row r="94" spans="1:2">
+    <row r="94" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A94" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="B94">
+        <f t="shared" si="1"/>
         <v>93</v>
       </c>
-      <c r="B94">
+      <c r="C94">
         <v>1747.194458007812</v>
       </c>
     </row>
-    <row r="95" spans="1:2">
+    <row r="95" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A95" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="B95">
+        <f t="shared" si="1"/>
         <v>94</v>
       </c>
-      <c r="B95">
+      <c r="C95">
         <v>1739.9658203125</v>
       </c>
     </row>
-    <row r="96" spans="1:2">
-      <c r="A96" s="1" t="s">
+    <row r="96" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A96" s="5" t="s">
+        <v>92</v>
+      </c>
+      <c r="B96">
+        <f t="shared" si="1"/>
         <v>95</v>
       </c>
-      <c r="B96">
+      <c r="C96">
         <v>1738.465576171875</v>
       </c>
     </row>
-    <row r="97" spans="1:2">
+    <row r="97" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A97" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="B97">
+        <f t="shared" si="1"/>
         <v>96</v>
       </c>
-      <c r="B97">
+      <c r="C97">
         <v>1734.639892578125</v>
       </c>
     </row>
-    <row r="98" spans="1:2">
+    <row r="98" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A98" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="B98">
+        <f t="shared" si="1"/>
         <v>97</v>
       </c>
-      <c r="B98">
+      <c r="C98">
         <v>1733.904663085938</v>
       </c>
     </row>
-    <row r="99" spans="1:2">
+    <row r="99" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A99" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="B99">
+        <f t="shared" si="1"/>
         <v>98</v>
       </c>
-      <c r="B99">
+      <c r="C99">
         <v>1730.304931640625</v>
       </c>
     </row>
-    <row r="100" spans="1:2">
+    <row r="100" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A100" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="B100">
+        <f t="shared" si="1"/>
         <v>99</v>
       </c>
-      <c r="B100">
+      <c r="C100">
         <v>1725.851928710938</v>
       </c>
     </row>
-    <row r="101" spans="1:2">
+    <row r="101" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A101" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="B101">
+        <f t="shared" si="1"/>
         <v>100</v>
       </c>
-      <c r="B101">
+      <c r="C101">
         <v>1719.163818359375</v>
       </c>
     </row>
-    <row r="102" spans="1:2">
+    <row r="102" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A102" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="B102">
+        <f t="shared" si="1"/>
         <v>101</v>
       </c>
-      <c r="B102">
+      <c r="C102">
         <v>1705.7763671875</v>
       </c>
     </row>
-    <row r="103" spans="1:2">
+    <row r="103" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A103" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="B103">
+        <f t="shared" si="1"/>
         <v>102</v>
       </c>
-      <c r="B103">
+      <c r="C103">
         <v>1695.462646484375</v>
       </c>
     </row>
-    <row r="104" spans="1:2">
+    <row r="104" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A104" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="B104">
+        <f t="shared" si="1"/>
         <v>103</v>
       </c>
-      <c r="B104">
+      <c r="C104">
         <v>1693.035766601562</v>
       </c>
     </row>
-    <row r="105" spans="1:2">
+    <row r="105" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A105" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="B105">
+        <f t="shared" si="1"/>
         <v>104</v>
       </c>
-      <c r="B105">
+      <c r="C105">
         <v>1690.22900390625</v>
       </c>
     </row>
-    <row r="106" spans="1:2">
+    <row r="106" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A106" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="B106">
+        <f t="shared" si="1"/>
         <v>105</v>
       </c>
-      <c r="B106">
+      <c r="C106">
         <v>1663.7255859375</v>
       </c>
     </row>
-    <row r="107" spans="1:2">
+    <row r="107" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A107" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="B107">
+        <f t="shared" si="1"/>
         <v>106</v>
       </c>
-      <c r="B107">
+      <c r="C107">
         <v>1659.1640625</v>
       </c>
     </row>
-    <row r="108" spans="1:2">
+    <row r="108" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A108" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="B108">
+        <f t="shared" si="1"/>
         <v>107</v>
       </c>
-      <c r="B108">
+      <c r="C108">
         <v>1643.611450195312</v>
       </c>
     </row>
-    <row r="109" spans="1:2">
+    <row r="109" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A109" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="B109">
+        <f t="shared" si="1"/>
         <v>108</v>
       </c>
-      <c r="B109">
+      <c r="C109">
         <v>1622.778686523438</v>
       </c>
     </row>
-    <row r="110" spans="1:2">
+    <row r="110" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A110" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="B110">
+        <f t="shared" si="1"/>
         <v>109</v>
       </c>
-      <c r="B110">
+      <c r="C110">
         <v>1597.468872070312</v>
       </c>
     </row>
-    <row r="111" spans="1:2">
+    <row r="111" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A111" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="B111">
+        <f t="shared" si="1"/>
         <v>110</v>
       </c>
-      <c r="B111">
+      <c r="C111">
         <v>1597.021850585938</v>
       </c>
     </row>
-    <row r="112" spans="1:2">
+    <row r="112" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A112" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="B112">
+        <f t="shared" si="1"/>
         <v>111</v>
       </c>
-      <c r="B112">
+      <c r="C112">
         <v>1595.024047851562</v>
       </c>
     </row>
-    <row r="113" spans="1:2">
+    <row r="113" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A113" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="B113">
+        <f t="shared" si="1"/>
         <v>112</v>
       </c>
-      <c r="B113">
+      <c r="C113">
         <v>1594.1806640625</v>
       </c>
     </row>
-    <row r="114" spans="1:2">
+    <row r="114" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A114" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="B114">
+        <f t="shared" si="1"/>
         <v>113</v>
       </c>
-      <c r="B114">
+      <c r="C114">
         <v>1592.3740234375</v>
       </c>
     </row>
-    <row r="115" spans="1:2">
+    <row r="115" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A115" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="B115">
+        <f t="shared" si="1"/>
         <v>114</v>
       </c>
-      <c r="B115">
+      <c r="C115">
         <v>1583.307373046875</v>
       </c>
     </row>
-    <row r="116" spans="1:2">
+    <row r="116" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A116" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="B116">
+        <f t="shared" si="1"/>
         <v>115</v>
       </c>
-      <c r="B116">
+      <c r="C116">
         <v>1579.995727539062</v>
       </c>
     </row>
-    <row r="117" spans="1:2">
+    <row r="117" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A117" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="B117">
+        <f t="shared" si="1"/>
         <v>116</v>
       </c>
-      <c r="B117">
+      <c r="C117">
         <v>1573.279541015625</v>
       </c>
     </row>
-    <row r="118" spans="1:2">
+    <row r="118" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A118" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="B118">
+        <f t="shared" si="1"/>
         <v>117</v>
       </c>
-      <c r="B118">
+      <c r="C118">
         <v>1552.513671875</v>
       </c>
     </row>
-    <row r="119" spans="1:2">
-      <c r="A119" s="1" t="s">
+    <row r="119" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A119" s="5" t="s">
+        <v>115</v>
+      </c>
+      <c r="B119">
+        <f t="shared" si="1"/>
         <v>118</v>
       </c>
-      <c r="B119">
+      <c r="C119">
         <v>1550.941162109375</v>
       </c>
     </row>
-    <row r="120" spans="1:2">
+    <row r="120" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A120" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="B120">
+        <f t="shared" si="1"/>
         <v>119</v>
       </c>
-      <c r="B120">
+      <c r="C120">
         <v>1535.43359375</v>
       </c>
     </row>
-    <row r="121" spans="1:2">
+    <row r="121" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A121" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="B121">
+        <f t="shared" si="1"/>
         <v>120</v>
       </c>
-      <c r="B121">
+      <c r="C121">
         <v>1531.6259765625</v>
       </c>
     </row>
-    <row r="122" spans="1:2">
+    <row r="122" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A122" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="B122">
+        <f t="shared" si="1"/>
         <v>121</v>
       </c>
-      <c r="B122">
+      <c r="C122">
         <v>1531.142578125</v>
       </c>
     </row>
-    <row r="123" spans="1:2">
+    <row r="123" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A123" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="B123">
+        <f t="shared" si="1"/>
         <v>122</v>
       </c>
-      <c r="B123">
+      <c r="C123">
         <v>1530.343139648438</v>
       </c>
     </row>
-    <row r="124" spans="1:2">
+    <row r="124" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A124" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="B124">
+        <f t="shared" si="1"/>
         <v>123</v>
       </c>
-      <c r="B124">
+      <c r="C124">
         <v>1528.41796875</v>
       </c>
     </row>
-    <row r="125" spans="1:2">
+    <row r="125" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A125" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="B125">
+        <f t="shared" si="1"/>
         <v>124</v>
       </c>
-      <c r="B125">
+      <c r="C125">
         <v>1525.65087890625</v>
       </c>
     </row>
-    <row r="126" spans="1:2">
+    <row r="126" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A126" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="B126">
+        <f t="shared" si="1"/>
         <v>125</v>
       </c>
-      <c r="B126">
+      <c r="C126">
         <v>1525.595336914062</v>
       </c>
     </row>
-    <row r="127" spans="1:2">
-      <c r="A127" s="1" t="s">
+    <row r="127" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A127" s="5" t="s">
+        <v>123</v>
+      </c>
+      <c r="B127">
+        <f t="shared" si="1"/>
         <v>126</v>
       </c>
-      <c r="B127">
+      <c r="C127">
         <v>1523.7607421875</v>
       </c>
     </row>
-    <row r="128" spans="1:2">
+    <row r="128" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A128" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="B128">
+        <f t="shared" si="1"/>
         <v>127</v>
       </c>
-      <c r="B128">
+      <c r="C128">
         <v>1522.539672851562</v>
       </c>
     </row>
-    <row r="129" spans="1:2">
+    <row r="129" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A129" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="B129">
+        <f t="shared" si="1"/>
         <v>128</v>
       </c>
-      <c r="B129">
+      <c r="C129">
         <v>1519.81494140625</v>
       </c>
     </row>
-    <row r="130" spans="1:2">
+    <row r="130" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A130" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="B130">
+        <f t="shared" si="1"/>
         <v>129</v>
       </c>
-      <c r="B130">
+      <c r="C130">
         <v>1519.14404296875</v>
       </c>
     </row>
-    <row r="131" spans="1:2">
+    <row r="131" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A131" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="B131">
+        <f t="shared" si="1"/>
         <v>130</v>
       </c>
-      <c r="B131">
+      <c r="C131">
         <v>1506.4951171875</v>
       </c>
     </row>
-    <row r="132" spans="1:2">
+    <row r="132" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A132" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="B132">
+        <f t="shared" ref="B132:B195" si="2">B131+1</f>
         <v>131</v>
       </c>
-      <c r="B132">
+      <c r="C132">
         <v>1500.404296875</v>
       </c>
     </row>
-    <row r="133" spans="1:2">
+    <row r="133" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A133" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="B133">
+        <f t="shared" si="2"/>
         <v>132</v>
       </c>
-      <c r="B133">
+      <c r="C133">
         <v>1495.090942382812</v>
       </c>
     </row>
-    <row r="134" spans="1:2">
+    <row r="134" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A134" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="B134">
+        <f t="shared" si="2"/>
         <v>133</v>
       </c>
-      <c r="B134">
+      <c r="C134">
         <v>1494.87158203125</v>
       </c>
     </row>
-    <row r="135" spans="1:2">
+    <row r="135" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A135" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="B135">
+        <f t="shared" si="2"/>
         <v>134</v>
       </c>
-      <c r="B135">
+      <c r="C135">
         <v>1494.582275390625</v>
       </c>
     </row>
-    <row r="136" spans="1:2">
+    <row r="136" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A136" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="B136">
+        <f t="shared" si="2"/>
         <v>135</v>
       </c>
-      <c r="B136">
+      <c r="C136">
         <v>1482.2587890625</v>
       </c>
     </row>
-    <row r="137" spans="1:2">
+    <row r="137" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A137" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="B137">
+        <f t="shared" si="2"/>
         <v>136</v>
       </c>
-      <c r="B137">
+      <c r="C137">
         <v>1475.1123046875</v>
       </c>
     </row>
-    <row r="138" spans="1:2">
+    <row r="138" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A138" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="B138">
+        <f t="shared" si="2"/>
         <v>137</v>
       </c>
-      <c r="B138">
+      <c r="C138">
         <v>1467.9423828125</v>
       </c>
     </row>
-    <row r="139" spans="1:2">
+    <row r="139" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A139" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="B139">
+        <f t="shared" si="2"/>
         <v>138</v>
       </c>
-      <c r="B139">
+      <c r="C139">
         <v>1466.064453125</v>
       </c>
     </row>
-    <row r="140" spans="1:2">
+    <row r="140" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A140" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="B140">
+        <f t="shared" si="2"/>
         <v>139</v>
       </c>
-      <c r="B140">
+      <c r="C140">
         <v>1461.833862304688</v>
       </c>
     </row>
-    <row r="141" spans="1:2">
+    <row r="141" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A141" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="B141">
+        <f t="shared" si="2"/>
         <v>140</v>
       </c>
-      <c r="B141">
+      <c r="C141">
         <v>1453.30859375</v>
       </c>
     </row>
-    <row r="142" spans="1:2">
+    <row r="142" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A142" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="B142">
+        <f t="shared" si="2"/>
         <v>141</v>
       </c>
-      <c r="B142">
+      <c r="C142">
         <v>1445.732543945312</v>
       </c>
     </row>
-    <row r="143" spans="1:2">
+    <row r="143" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A143" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="B143">
+        <f t="shared" si="2"/>
         <v>142</v>
       </c>
-      <c r="B143">
+      <c r="C143">
         <v>1445.610595703125</v>
       </c>
     </row>
-    <row r="144" spans="1:2">
+    <row r="144" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A144" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="B144">
+        <f t="shared" si="2"/>
         <v>143</v>
       </c>
-      <c r="B144">
+      <c r="C144">
         <v>1442.05078125</v>
       </c>
     </row>
-    <row r="145" spans="1:2">
+    <row r="145" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A145" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="B145">
+        <f t="shared" si="2"/>
         <v>144</v>
       </c>
-      <c r="B145">
+      <c r="C145">
         <v>1439.006958007812</v>
       </c>
     </row>
-    <row r="146" spans="1:2">
+    <row r="146" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A146" s="1" t="s">
+        <v>142</v>
+      </c>
+      <c r="B146">
+        <f t="shared" si="2"/>
         <v>145</v>
       </c>
-      <c r="B146">
+      <c r="C146">
         <v>1425.560791015625</v>
       </c>
     </row>
-    <row r="147" spans="1:2">
+    <row r="147" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A147" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="B147">
+        <f t="shared" si="2"/>
         <v>146</v>
       </c>
-      <c r="B147">
+      <c r="C147">
         <v>1422.323486328125</v>
       </c>
     </row>
-    <row r="148" spans="1:2">
+    <row r="148" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A148" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="B148">
+        <f t="shared" si="2"/>
         <v>147</v>
       </c>
-      <c r="B148">
+      <c r="C148">
         <v>1419.3955078125</v>
       </c>
     </row>
-    <row r="149" spans="1:2">
+    <row r="149" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A149" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="B149">
+        <f t="shared" si="2"/>
         <v>148</v>
       </c>
-      <c r="B149">
+      <c r="C149">
         <v>1404.558837890625</v>
       </c>
     </row>
-    <row r="150" spans="1:2">
+    <row r="150" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A150" s="1" t="s">
+        <v>146</v>
+      </c>
+      <c r="B150">
+        <f t="shared" si="2"/>
         <v>149</v>
       </c>
-      <c r="B150">
+      <c r="C150">
         <v>1403.411987304688</v>
       </c>
     </row>
-    <row r="151" spans="1:2">
+    <row r="151" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A151" s="1" t="s">
+        <v>147</v>
+      </c>
+      <c r="B151">
+        <f t="shared" si="2"/>
         <v>150</v>
       </c>
-      <c r="B151">
+      <c r="C151">
         <v>1388.255126953125</v>
       </c>
     </row>
-    <row r="152" spans="1:2">
+    <row r="152" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A152" s="1" t="s">
+        <v>148</v>
+      </c>
+      <c r="B152">
+        <f t="shared" si="2"/>
         <v>151</v>
       </c>
-      <c r="B152">
+      <c r="C152">
         <v>1388.16015625</v>
       </c>
     </row>
-    <row r="153" spans="1:2">
+    <row r="153" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A153" s="1" t="s">
+        <v>149</v>
+      </c>
+      <c r="B153">
+        <f t="shared" si="2"/>
         <v>152</v>
       </c>
-      <c r="B153">
+      <c r="C153">
         <v>1377.8828125</v>
       </c>
     </row>
-    <row r="154" spans="1:2">
+    <row r="154" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A154" s="1" t="s">
+        <v>150</v>
+      </c>
+      <c r="B154">
+        <f t="shared" si="2"/>
         <v>153</v>
       </c>
-      <c r="B154">
+      <c r="C154">
         <v>1367.928588867188</v>
       </c>
     </row>
-    <row r="155" spans="1:2">
+    <row r="155" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A155" s="1" t="s">
+        <v>151</v>
+      </c>
+      <c r="B155">
+        <f t="shared" si="2"/>
         <v>154</v>
       </c>
-      <c r="B155">
+      <c r="C155">
         <v>1363.2802734375</v>
       </c>
     </row>
-    <row r="156" spans="1:2">
+    <row r="156" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A156" s="1" t="s">
+        <v>152</v>
+      </c>
+      <c r="B156">
+        <f t="shared" si="2"/>
         <v>155</v>
       </c>
-      <c r="B156">
+      <c r="C156">
         <v>1355.045288085938</v>
       </c>
     </row>
-    <row r="157" spans="1:2">
+    <row r="157" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A157" s="1" t="s">
+        <v>153</v>
+      </c>
+      <c r="B157">
+        <f t="shared" si="2"/>
         <v>156</v>
       </c>
-      <c r="B157">
+      <c r="C157">
         <v>1350.42138671875</v>
       </c>
     </row>
-    <row r="158" spans="1:2">
+    <row r="158" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A158" s="1" t="s">
+        <v>154</v>
+      </c>
+      <c r="B158">
+        <f t="shared" si="2"/>
         <v>157</v>
       </c>
-      <c r="B158">
+      <c r="C158">
         <v>1339.46728515625</v>
       </c>
     </row>
-    <row r="159" spans="1:2">
+    <row r="159" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A159" s="1" t="s">
+        <v>155</v>
+      </c>
+      <c r="B159">
+        <f t="shared" si="2"/>
         <v>158</v>
       </c>
-      <c r="B159">
+      <c r="C159">
         <v>1336.306396484375</v>
       </c>
     </row>
-    <row r="160" spans="1:2">
+    <row r="160" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A160" s="1" t="s">
+        <v>156</v>
+      </c>
+      <c r="B160">
+        <f t="shared" si="2"/>
         <v>159</v>
       </c>
-      <c r="B160">
+      <c r="C160">
         <v>1333.2255859375</v>
       </c>
     </row>
-    <row r="161" spans="1:2">
+    <row r="161" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A161" s="1" t="s">
+        <v>157</v>
+      </c>
+      <c r="B161">
+        <f t="shared" si="2"/>
         <v>160</v>
       </c>
-      <c r="B161">
+      <c r="C161">
         <v>1331.423583984375</v>
       </c>
     </row>
-    <row r="162" spans="1:2">
+    <row r="162" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A162" s="1" t="s">
+        <v>158</v>
+      </c>
+      <c r="B162">
+        <f t="shared" si="2"/>
         <v>161</v>
       </c>
-      <c r="B162">
+      <c r="C162">
         <v>1326.665283203125</v>
       </c>
     </row>
-    <row r="163" spans="1:2">
+    <row r="163" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A163" s="1" t="s">
+        <v>159</v>
+      </c>
+      <c r="B163">
+        <f t="shared" si="2"/>
         <v>162</v>
       </c>
-      <c r="B163">
+      <c r="C163">
         <v>1325.371337890625</v>
       </c>
     </row>
-    <row r="164" spans="1:2">
+    <row r="164" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A164" s="1" t="s">
+        <v>160</v>
+      </c>
+      <c r="B164">
+        <f t="shared" si="2"/>
         <v>163</v>
       </c>
-      <c r="B164">
+      <c r="C164">
         <v>1324.458129882812</v>
       </c>
     </row>
-    <row r="165" spans="1:2">
+    <row r="165" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A165" s="1" t="s">
+        <v>161</v>
+      </c>
+      <c r="B165">
+        <f t="shared" si="2"/>
         <v>164</v>
       </c>
-      <c r="B165">
+      <c r="C165">
         <v>1308.121337890625</v>
       </c>
     </row>
-    <row r="166" spans="1:2">
+    <row r="166" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A166" s="1" t="s">
+        <v>162</v>
+      </c>
+      <c r="B166">
+        <f t="shared" si="2"/>
         <v>165</v>
       </c>
-      <c r="B166">
+      <c r="C166">
         <v>1306.387451171875</v>
       </c>
     </row>
-    <row r="167" spans="1:2">
+    <row r="167" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A167" s="1" t="s">
+        <v>163</v>
+      </c>
+      <c r="B167">
+        <f t="shared" si="2"/>
         <v>166</v>
       </c>
-      <c r="B167">
+      <c r="C167">
         <v>1294.993896484375</v>
       </c>
     </row>
-    <row r="168" spans="1:2">
+    <row r="168" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A168" s="1" t="s">
+        <v>164</v>
+      </c>
+      <c r="B168">
+        <f t="shared" si="2"/>
         <v>167</v>
       </c>
-      <c r="B168">
+      <c r="C168">
         <v>1275.525390625</v>
       </c>
     </row>
-    <row r="169" spans="1:2">
+    <row r="169" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A169" s="1" t="s">
+        <v>165</v>
+      </c>
+      <c r="B169">
+        <f t="shared" si="2"/>
         <v>168</v>
       </c>
-      <c r="B169">
+      <c r="C169">
         <v>1272.258666992188</v>
       </c>
     </row>
-    <row r="170" spans="1:2">
+    <row r="170" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A170" s="1" t="s">
+        <v>166</v>
+      </c>
+      <c r="B170">
+        <f t="shared" si="2"/>
         <v>169</v>
       </c>
-      <c r="B170">
+      <c r="C170">
         <v>1271.4345703125</v>
       </c>
     </row>
-    <row r="171" spans="1:2">
+    <row r="171" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A171" s="1" t="s">
+        <v>167</v>
+      </c>
+      <c r="B171">
+        <f t="shared" si="2"/>
         <v>170</v>
       </c>
-      <c r="B171">
+      <c r="C171">
         <v>1268.573486328125</v>
       </c>
     </row>
-    <row r="172" spans="1:2">
+    <row r="172" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A172" s="1" t="s">
+        <v>168</v>
+      </c>
+      <c r="B172">
+        <f t="shared" si="2"/>
         <v>171</v>
       </c>
-      <c r="B172">
+      <c r="C172">
         <v>1259.673217773438</v>
       </c>
     </row>
-    <row r="173" spans="1:2">
+    <row r="173" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A173" s="1" t="s">
+        <v>169</v>
+      </c>
+      <c r="B173">
+        <f t="shared" si="2"/>
         <v>172</v>
       </c>
-      <c r="B173">
+      <c r="C173">
         <v>1253.880126953125</v>
       </c>
     </row>
-    <row r="174" spans="1:2">
+    <row r="174" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A174" s="1" t="s">
+        <v>170</v>
+      </c>
+      <c r="B174">
+        <f t="shared" si="2"/>
         <v>173</v>
       </c>
-      <c r="B174">
+      <c r="C174">
         <v>1236.365234375</v>
       </c>
     </row>
-    <row r="175" spans="1:2">
+    <row r="175" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A175" s="1" t="s">
+        <v>171</v>
+      </c>
+      <c r="B175">
+        <f t="shared" si="2"/>
         <v>174</v>
       </c>
-      <c r="B175">
+      <c r="C175">
         <v>1236.097778320312</v>
       </c>
     </row>
-    <row r="176" spans="1:2">
+    <row r="176" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A176" s="1" t="s">
+        <v>172</v>
+      </c>
+      <c r="B176">
+        <f t="shared" si="2"/>
         <v>175</v>
       </c>
-      <c r="B176">
+      <c r="C176">
         <v>1231.621704101562</v>
       </c>
     </row>
-    <row r="177" spans="1:2">
+    <row r="177" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A177" s="1" t="s">
+        <v>173</v>
+      </c>
+      <c r="B177">
+        <f t="shared" si="2"/>
         <v>176</v>
       </c>
-      <c r="B177">
+      <c r="C177">
         <v>1228.475463867188</v>
       </c>
     </row>
-    <row r="178" spans="1:2">
+    <row r="178" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A178" s="1" t="s">
+        <v>174</v>
+      </c>
+      <c r="B178">
+        <f t="shared" si="2"/>
         <v>177</v>
       </c>
-      <c r="B178">
+      <c r="C178">
         <v>1226.994995117188</v>
       </c>
     </row>
-    <row r="179" spans="1:2">
+    <row r="179" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A179" s="1" t="s">
+        <v>175</v>
+      </c>
+      <c r="B179">
+        <f t="shared" si="2"/>
         <v>178</v>
       </c>
-      <c r="B179">
+      <c r="C179">
         <v>1224.66455078125</v>
       </c>
     </row>
-    <row r="180" spans="1:2">
+    <row r="180" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A180" s="1" t="s">
+        <v>176</v>
+      </c>
+      <c r="B180">
+        <f t="shared" si="2"/>
         <v>179</v>
       </c>
-      <c r="B180">
+      <c r="C180">
         <v>1220.246215820312</v>
       </c>
     </row>
-    <row r="181" spans="1:2">
+    <row r="181" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A181" s="1" t="s">
+        <v>177</v>
+      </c>
+      <c r="B181">
+        <f t="shared" si="2"/>
         <v>180</v>
       </c>
-      <c r="B181">
+      <c r="C181">
         <v>1213.423706054688</v>
       </c>
     </row>
-    <row r="182" spans="1:2">
+    <row r="182" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A182" s="1" t="s">
+        <v>178</v>
+      </c>
+      <c r="B182">
+        <f t="shared" si="2"/>
         <v>181</v>
       </c>
-      <c r="B182">
+      <c r="C182">
         <v>1206.9599609375</v>
       </c>
     </row>
-    <row r="183" spans="1:2">
+    <row r="183" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A183" s="1" t="s">
+        <v>179</v>
+      </c>
+      <c r="B183">
+        <f t="shared" si="2"/>
         <v>182</v>
       </c>
-      <c r="B183">
+      <c r="C183">
         <v>1197.483642578125</v>
       </c>
     </row>
-    <row r="184" spans="1:2">
+    <row r="184" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A184" s="1" t="s">
+        <v>180</v>
+      </c>
+      <c r="B184">
+        <f t="shared" si="2"/>
         <v>183</v>
       </c>
-      <c r="B184">
+      <c r="C184">
         <v>1190.486572265625</v>
       </c>
     </row>
-    <row r="185" spans="1:2">
+    <row r="185" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A185" s="1" t="s">
+        <v>181</v>
+      </c>
+      <c r="B185">
+        <f t="shared" si="2"/>
         <v>184</v>
       </c>
-      <c r="B185">
+      <c r="C185">
         <v>1189.49462890625</v>
       </c>
     </row>
-    <row r="186" spans="1:2">
+    <row r="186" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A186" s="1" t="s">
+        <v>182</v>
+      </c>
+      <c r="B186">
+        <f t="shared" si="2"/>
         <v>185</v>
       </c>
-      <c r="B186">
+      <c r="C186">
         <v>1188.338623046875</v>
       </c>
     </row>
-    <row r="187" spans="1:2">
+    <row r="187" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A187" s="1" t="s">
+        <v>183</v>
+      </c>
+      <c r="B187">
+        <f t="shared" si="2"/>
         <v>186</v>
       </c>
-      <c r="B187">
+      <c r="C187">
         <v>1188.0009765625</v>
       </c>
     </row>
-    <row r="188" spans="1:2">
+    <row r="188" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A188" s="1" t="s">
+        <v>184</v>
+      </c>
+      <c r="B188">
+        <f t="shared" si="2"/>
         <v>187</v>
       </c>
-      <c r="B188">
+      <c r="C188">
         <v>1183.78955078125</v>
       </c>
     </row>
-    <row r="189" spans="1:2">
+    <row r="189" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A189" s="1" t="s">
+        <v>185</v>
+      </c>
+      <c r="B189">
+        <f t="shared" si="2"/>
         <v>188</v>
       </c>
-      <c r="B189">
+      <c r="C189">
         <v>1166.719970703125</v>
       </c>
     </row>
-    <row r="190" spans="1:2">
+    <row r="190" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A190" s="1" t="s">
+        <v>186</v>
+      </c>
+      <c r="B190">
+        <f t="shared" si="2"/>
         <v>189</v>
       </c>
-      <c r="B190">
+      <c r="C190">
         <v>1161.124755859375</v>
       </c>
     </row>
-    <row r="191" spans="1:2">
+    <row r="191" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A191" s="1" t="s">
+        <v>187</v>
+      </c>
+      <c r="B191">
+        <f t="shared" si="2"/>
         <v>190</v>
       </c>
-      <c r="B191">
+      <c r="C191">
         <v>1153.300659179688</v>
       </c>
     </row>
-    <row r="192" spans="1:2">
+    <row r="192" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A192" s="1" t="s">
+        <v>188</v>
+      </c>
+      <c r="B192">
+        <f t="shared" si="2"/>
         <v>191</v>
       </c>
-      <c r="B192">
+      <c r="C192">
         <v>1152.943115234375</v>
       </c>
     </row>
-    <row r="193" spans="1:2">
+    <row r="193" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A193" s="1" t="s">
+        <v>189</v>
+      </c>
+      <c r="B193">
+        <f t="shared" si="2"/>
         <v>192</v>
       </c>
-      <c r="B193">
+      <c r="C193">
         <v>1146.414794921875</v>
       </c>
     </row>
-    <row r="194" spans="1:2">
+    <row r="194" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A194" s="1" t="s">
+        <v>190</v>
+      </c>
+      <c r="B194">
+        <f t="shared" si="2"/>
         <v>193</v>
       </c>
-      <c r="B194">
+      <c r="C194">
         <v>1136.905029296875</v>
       </c>
     </row>
-    <row r="195" spans="1:2">
+    <row r="195" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A195" s="1" t="s">
+        <v>191</v>
+      </c>
+      <c r="B195">
+        <f t="shared" si="2"/>
         <v>194</v>
       </c>
-      <c r="B195">
+      <c r="C195">
         <v>1119.998413085938</v>
       </c>
     </row>
-    <row r="196" spans="1:2">
+    <row r="196" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A196" s="1" t="s">
+        <v>192</v>
+      </c>
+      <c r="B196">
+        <f t="shared" ref="B196:B259" si="3">B195+1</f>
         <v>195</v>
       </c>
-      <c r="B196">
+      <c r="C196">
         <v>1077.54443359375</v>
       </c>
     </row>
-    <row r="197" spans="1:2">
+    <row r="197" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A197" s="1" t="s">
+        <v>193</v>
+      </c>
+      <c r="B197">
+        <f t="shared" si="3"/>
         <v>196</v>
       </c>
-      <c r="B197">
+      <c r="C197">
         <v>1071.044555664062</v>
       </c>
     </row>
-    <row r="198" spans="1:2">
+    <row r="198" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A198" s="1" t="s">
+        <v>194</v>
+      </c>
+      <c r="B198">
+        <f t="shared" si="3"/>
         <v>197</v>
       </c>
-      <c r="B198">
+      <c r="C198">
         <v>1070.590576171875</v>
       </c>
     </row>
-    <row r="199" spans="1:2">
+    <row r="199" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A199" s="1" t="s">
+        <v>195</v>
+      </c>
+      <c r="B199">
+        <f t="shared" si="3"/>
         <v>198</v>
       </c>
-      <c r="B199">
+      <c r="C199">
         <v>1069.421997070312</v>
       </c>
     </row>
-    <row r="200" spans="1:2">
+    <row r="200" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A200" s="1" t="s">
+        <v>196</v>
+      </c>
+      <c r="B200">
+        <f t="shared" si="3"/>
         <v>199</v>
       </c>
-      <c r="B200">
+      <c r="C200">
         <v>1066.341918945312</v>
       </c>
     </row>
-    <row r="201" spans="1:2">
+    <row r="201" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A201" s="1" t="s">
+        <v>197</v>
+      </c>
+      <c r="B201">
+        <f t="shared" si="3"/>
         <v>200</v>
       </c>
-      <c r="B201">
+      <c r="C201">
         <v>1064.520751953125</v>
       </c>
     </row>
-    <row r="202" spans="1:2">
+    <row r="202" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A202" s="1" t="s">
+        <v>198</v>
+      </c>
+      <c r="B202">
+        <f t="shared" si="3"/>
         <v>201</v>
       </c>
-      <c r="B202">
+      <c r="C202">
         <v>1063.47021484375</v>
       </c>
     </row>
-    <row r="203" spans="1:2">
+    <row r="203" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A203" s="1" t="s">
+        <v>199</v>
+      </c>
+      <c r="B203">
+        <f t="shared" si="3"/>
         <v>202</v>
       </c>
-      <c r="B203">
+      <c r="C203">
         <v>1061.466186523438</v>
       </c>
     </row>
-    <row r="204" spans="1:2">
+    <row r="204" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A204" s="1" t="s">
+        <v>200</v>
+      </c>
+      <c r="B204">
+        <f t="shared" si="3"/>
         <v>203</v>
       </c>
-      <c r="B204">
+      <c r="C204">
         <v>1057.6845703125</v>
       </c>
     </row>
-    <row r="205" spans="1:2">
+    <row r="205" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A205" s="1" t="s">
+        <v>201</v>
+      </c>
+      <c r="B205">
+        <f t="shared" si="3"/>
         <v>204</v>
       </c>
-      <c r="B205">
+      <c r="C205">
         <v>1047.1845703125</v>
       </c>
     </row>
-    <row r="206" spans="1:2">
+    <row r="206" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A206" s="1" t="s">
+        <v>202</v>
+      </c>
+      <c r="B206">
+        <f t="shared" si="3"/>
         <v>205</v>
       </c>
-      <c r="B206">
+      <c r="C206">
         <v>1045.174560546875</v>
       </c>
     </row>
-    <row r="207" spans="1:2">
+    <row r="207" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A207" s="1" t="s">
+        <v>203</v>
+      </c>
+      <c r="B207">
+        <f t="shared" si="3"/>
         <v>206</v>
       </c>
-      <c r="B207">
+      <c r="C207">
         <v>1043.453002929688</v>
       </c>
     </row>
-    <row r="208" spans="1:2">
+    <row r="208" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A208" s="1" t="s">
+        <v>204</v>
+      </c>
+      <c r="B208">
+        <f t="shared" si="3"/>
         <v>207</v>
       </c>
-      <c r="B208">
+      <c r="C208">
         <v>1038.708740234375</v>
       </c>
     </row>
-    <row r="209" spans="1:2">
+    <row r="209" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A209" s="1" t="s">
+        <v>205</v>
+      </c>
+      <c r="B209">
+        <f t="shared" si="3"/>
         <v>208</v>
       </c>
-      <c r="B209">
+      <c r="C209">
         <v>1037.785888671875</v>
       </c>
     </row>
-    <row r="210" spans="1:2">
+    <row r="210" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A210" s="1" t="s">
+        <v>206</v>
+      </c>
+      <c r="B210">
+        <f t="shared" si="3"/>
         <v>209</v>
       </c>
-      <c r="B210">
+      <c r="C210">
         <v>1037.1630859375</v>
       </c>
     </row>
-    <row r="211" spans="1:2">
+    <row r="211" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A211" s="1" t="s">
+        <v>207</v>
+      </c>
+      <c r="B211">
+        <f t="shared" si="3"/>
         <v>210</v>
       </c>
-      <c r="B211">
+      <c r="C211">
         <v>1036.815307617188</v>
       </c>
     </row>
-    <row r="212" spans="1:2">
+    <row r="212" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A212" s="1" t="s">
+        <v>208</v>
+      </c>
+      <c r="B212">
+        <f t="shared" si="3"/>
         <v>211</v>
       </c>
-      <c r="B212">
+      <c r="C212">
         <v>1036.683349609375</v>
       </c>
     </row>
-    <row r="213" spans="1:2">
+    <row r="213" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A213" s="1" t="s">
+        <v>209</v>
+      </c>
+      <c r="B213">
+        <f t="shared" si="3"/>
         <v>212</v>
       </c>
-      <c r="B213">
+      <c r="C213">
         <v>1029.386962890625</v>
       </c>
     </row>
-    <row r="214" spans="1:2">
+    <row r="214" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A214" s="1" t="s">
+        <v>210</v>
+      </c>
+      <c r="B214">
+        <f t="shared" si="3"/>
         <v>213</v>
       </c>
-      <c r="B214">
+      <c r="C214">
         <v>1025.755249023438</v>
       </c>
     </row>
-    <row r="215" spans="1:2">
+    <row r="215" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A215" s="1" t="s">
+        <v>211</v>
+      </c>
+      <c r="B215">
+        <f t="shared" si="3"/>
         <v>214</v>
       </c>
-      <c r="B215">
+      <c r="C215">
         <v>1024.93359375</v>
       </c>
     </row>
-    <row r="216" spans="1:2">
+    <row r="216" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A216" s="1" t="s">
+        <v>212</v>
+      </c>
+      <c r="B216">
+        <f t="shared" si="3"/>
         <v>215</v>
       </c>
-      <c r="B216">
+      <c r="C216">
         <v>1022.331726074219</v>
       </c>
     </row>
-    <row r="217" spans="1:2">
+    <row r="217" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A217" s="1" t="s">
+        <v>213</v>
+      </c>
+      <c r="B217">
+        <f t="shared" si="3"/>
         <v>216</v>
       </c>
-      <c r="B217">
+      <c r="C217">
         <v>1020.495483398438</v>
       </c>
     </row>
-    <row r="218" spans="1:2">
+    <row r="218" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A218" s="1" t="s">
+        <v>214</v>
+      </c>
+      <c r="B218">
+        <f t="shared" si="3"/>
         <v>217</v>
       </c>
-      <c r="B218">
+      <c r="C218">
         <v>1014.492431640625</v>
       </c>
     </row>
-    <row r="219" spans="1:2">
+    <row r="219" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A219" s="1" t="s">
+        <v>215</v>
+      </c>
+      <c r="B219">
+        <f t="shared" si="3"/>
         <v>218</v>
       </c>
-      <c r="B219">
+      <c r="C219">
         <v>1013.533630371094</v>
       </c>
     </row>
-    <row r="220" spans="1:2">
+    <row r="220" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A220" s="1" t="s">
+        <v>216</v>
+      </c>
+      <c r="B220">
+        <f t="shared" si="3"/>
         <v>219</v>
       </c>
-      <c r="B220">
+      <c r="C220">
         <v>1013.087585449219</v>
       </c>
     </row>
-    <row r="221" spans="1:2">
+    <row r="221" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A221" s="1" t="s">
+        <v>217</v>
+      </c>
+      <c r="B221">
+        <f t="shared" si="3"/>
         <v>220</v>
       </c>
-      <c r="B221">
+      <c r="C221">
         <v>1002.13818359375</v>
       </c>
     </row>
-    <row r="222" spans="1:2">
+    <row r="222" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A222" s="1" t="s">
+        <v>218</v>
+      </c>
+      <c r="B222">
+        <f t="shared" si="3"/>
         <v>221</v>
       </c>
-      <c r="B222">
+      <c r="C222">
         <v>1001.820739746094</v>
       </c>
     </row>
-    <row r="223" spans="1:2">
+    <row r="223" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A223" s="1" t="s">
+        <v>219</v>
+      </c>
+      <c r="B223">
+        <f t="shared" si="3"/>
         <v>222</v>
       </c>
-      <c r="B223">
+      <c r="C223">
         <v>1001.087585449219</v>
       </c>
     </row>
-    <row r="224" spans="1:2">
+    <row r="224" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A224" s="1" t="s">
+        <v>220</v>
+      </c>
+      <c r="B224">
+        <f t="shared" si="3"/>
         <v>223</v>
       </c>
-      <c r="B224">
+      <c r="C224">
         <v>999.248046875</v>
       </c>
     </row>
-    <row r="225" spans="1:2">
+    <row r="225" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A225" s="1" t="s">
+        <v>221</v>
+      </c>
+      <c r="B225">
+        <f t="shared" si="3"/>
         <v>224</v>
       </c>
-      <c r="B225">
-        <v>998.5307006835938</v>
-      </c>
-    </row>
-    <row r="226" spans="1:2">
+      <c r="C225">
+        <v>998.53070068359375</v>
+      </c>
+    </row>
+    <row r="226" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A226" s="1" t="s">
+        <v>222</v>
+      </c>
+      <c r="B226">
+        <f t="shared" si="3"/>
         <v>225</v>
       </c>
-      <c r="B226">
+      <c r="C226">
         <v>998.3028564453125</v>
       </c>
     </row>
-    <row r="227" spans="1:2">
+    <row r="227" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A227" s="1" t="s">
+        <v>223</v>
+      </c>
+      <c r="B227">
+        <f t="shared" si="3"/>
         <v>226</v>
       </c>
-      <c r="B227">
+      <c r="C227">
         <v>997.4969482421875</v>
       </c>
     </row>
-    <row r="228" spans="1:2">
+    <row r="228" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A228" s="1" t="s">
+        <v>224</v>
+      </c>
+      <c r="B228">
+        <f t="shared" si="3"/>
         <v>227</v>
       </c>
-      <c r="B228">
+      <c r="C228">
         <v>997.1146240234375</v>
       </c>
     </row>
-    <row r="229" spans="1:2">
+    <row r="229" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A229" s="1" t="s">
+        <v>225</v>
+      </c>
+      <c r="B229">
+        <f t="shared" si="3"/>
         <v>228</v>
       </c>
-      <c r="B229">
-        <v>996.6427612304688</v>
-      </c>
-    </row>
-    <row r="230" spans="1:2">
+      <c r="C229">
+        <v>996.64276123046875</v>
+      </c>
+    </row>
+    <row r="230" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A230" s="1" t="s">
+        <v>226</v>
+      </c>
+      <c r="B230">
+        <f t="shared" si="3"/>
         <v>229</v>
       </c>
-      <c r="B230">
+      <c r="C230">
         <v>996.633544921875</v>
       </c>
     </row>
-    <row r="231" spans="1:2">
+    <row r="231" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A231" s="1" t="s">
+        <v>227</v>
+      </c>
+      <c r="B231">
+        <f t="shared" si="3"/>
         <v>230</v>
       </c>
-      <c r="B231">
+      <c r="C231">
         <v>993.2218017578125</v>
       </c>
     </row>
-    <row r="232" spans="1:2">
+    <row r="232" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A232" s="1" t="s">
+        <v>228</v>
+      </c>
+      <c r="B232">
+        <f t="shared" si="3"/>
         <v>231</v>
       </c>
-      <c r="B232">
-        <v>993.1879272460938</v>
-      </c>
-    </row>
-    <row r="233" spans="1:2">
+      <c r="C232">
+        <v>993.18792724609375</v>
+      </c>
+    </row>
+    <row r="233" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A233" s="1" t="s">
+        <v>229</v>
+      </c>
+      <c r="B233">
+        <f t="shared" si="3"/>
         <v>232</v>
       </c>
-      <c r="B233">
+      <c r="C233">
         <v>991.89111328125</v>
       </c>
     </row>
-    <row r="234" spans="1:2">
+    <row r="234" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A234" s="1" t="s">
+        <v>230</v>
+      </c>
+      <c r="B234">
+        <f t="shared" si="3"/>
         <v>233</v>
       </c>
-      <c r="B234">
+      <c r="C234">
         <v>988.0924072265625</v>
       </c>
     </row>
-    <row r="235" spans="1:2">
+    <row r="235" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A235" s="1" t="s">
+        <v>231</v>
+      </c>
+      <c r="B235">
+        <f t="shared" si="3"/>
         <v>234</v>
       </c>
-      <c r="B235">
+      <c r="C235">
         <v>987.35107421875</v>
       </c>
     </row>
-    <row r="236" spans="1:2">
+    <row r="236" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A236" s="1" t="s">
+        <v>232</v>
+      </c>
+      <c r="B236">
+        <f t="shared" si="3"/>
         <v>235</v>
       </c>
-      <c r="B236">
-        <v>985.6622924804688</v>
-      </c>
-    </row>
-    <row r="237" spans="1:2">
+      <c r="C236">
+        <v>985.66229248046875</v>
+      </c>
+    </row>
+    <row r="237" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A237" s="1" t="s">
+        <v>233</v>
+      </c>
+      <c r="B237">
+        <f t="shared" si="3"/>
         <v>236</v>
       </c>
-      <c r="B237">
-        <v>984.7667846679688</v>
-      </c>
-    </row>
-    <row r="238" spans="1:2">
+      <c r="C237">
+        <v>984.76678466796875</v>
+      </c>
+    </row>
+    <row r="238" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A238" s="1" t="s">
+        <v>234</v>
+      </c>
+      <c r="B238">
+        <f t="shared" si="3"/>
         <v>237</v>
       </c>
-      <c r="B238">
+      <c r="C238">
         <v>982.7529296875</v>
       </c>
     </row>
-    <row r="239" spans="1:2">
+    <row r="239" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A239" s="1" t="s">
+        <v>235</v>
+      </c>
+      <c r="B239">
+        <f t="shared" si="3"/>
         <v>238</v>
       </c>
-      <c r="B239">
-        <v>965.0120239257812</v>
-      </c>
-    </row>
-    <row r="240" spans="1:2">
+      <c r="C239">
+        <v>965.01202392578125</v>
+      </c>
+    </row>
+    <row r="240" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A240" s="1" t="s">
+        <v>236</v>
+      </c>
+      <c r="B240">
+        <f t="shared" si="3"/>
         <v>239</v>
       </c>
-      <c r="B240">
-        <v>958.1947631835938</v>
-      </c>
-    </row>
-    <row r="241" spans="1:2">
+      <c r="C240">
+        <v>958.19476318359375</v>
+      </c>
+    </row>
+    <row r="241" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A241" s="1" t="s">
+        <v>237</v>
+      </c>
+      <c r="B241">
+        <f t="shared" si="3"/>
         <v>240</v>
       </c>
-      <c r="B241">
+      <c r="C241">
         <v>954.3607177734375</v>
       </c>
     </row>
-    <row r="242" spans="1:2">
+    <row r="242" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A242" s="1" t="s">
+        <v>238</v>
+      </c>
+      <c r="B242">
+        <f t="shared" si="3"/>
         <v>241</v>
       </c>
-      <c r="B242">
-        <v>949.2544555664062</v>
-      </c>
-    </row>
-    <row r="243" spans="1:2">
+      <c r="C242">
+        <v>949.25445556640625</v>
+      </c>
+    </row>
+    <row r="243" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A243" s="1" t="s">
+        <v>239</v>
+      </c>
+      <c r="B243">
+        <f t="shared" si="3"/>
         <v>242</v>
       </c>
-      <c r="B243">
+      <c r="C243">
         <v>946.882080078125</v>
       </c>
     </row>
-    <row r="244" spans="1:2">
+    <row r="244" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A244" s="1" t="s">
+        <v>240</v>
+      </c>
+      <c r="B244">
+        <f t="shared" si="3"/>
         <v>243</v>
       </c>
-      <c r="B244">
-        <v>932.7533569335938</v>
-      </c>
-    </row>
-    <row r="245" spans="1:2">
+      <c r="C244">
+        <v>932.75335693359375</v>
+      </c>
+    </row>
+    <row r="245" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A245" s="1" t="s">
+        <v>241</v>
+      </c>
+      <c r="B245">
+        <f t="shared" si="3"/>
         <v>244</v>
       </c>
-      <c r="B245">
-        <v>929.0911254882812</v>
-      </c>
-    </row>
-    <row r="246" spans="1:2">
+      <c r="C245">
+        <v>929.09112548828125</v>
+      </c>
+    </row>
+    <row r="246" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A246" s="1" t="s">
+        <v>242</v>
+      </c>
+      <c r="B246">
+        <f t="shared" si="3"/>
         <v>245</v>
       </c>
-      <c r="B246">
+      <c r="C246">
         <v>928.3824462890625</v>
       </c>
     </row>
-    <row r="247" spans="1:2">
+    <row r="247" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A247" s="1" t="s">
+        <v>243</v>
+      </c>
+      <c r="B247">
+        <f t="shared" si="3"/>
         <v>246</v>
       </c>
-      <c r="B247">
+      <c r="C247">
         <v>911.760986328125</v>
       </c>
     </row>
-    <row r="248" spans="1:2">
+    <row r="248" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A248" s="1" t="s">
+        <v>244</v>
+      </c>
+      <c r="B248">
+        <f t="shared" si="3"/>
         <v>247</v>
       </c>
-      <c r="B248">
-        <v>906.3637084960938</v>
-      </c>
-    </row>
-    <row r="249" spans="1:2">
+      <c r="C248">
+        <v>906.36370849609375</v>
+      </c>
+    </row>
+    <row r="249" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A249" s="1" t="s">
+        <v>245</v>
+      </c>
+      <c r="B249">
+        <f t="shared" si="3"/>
         <v>248</v>
       </c>
-      <c r="B249">
+      <c r="C249">
         <v>902.6337890625</v>
       </c>
     </row>
-    <row r="250" spans="1:2">
+    <row r="250" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A250" s="1" t="s">
+        <v>246</v>
+      </c>
+      <c r="B250">
+        <f t="shared" si="3"/>
         <v>249</v>
       </c>
-      <c r="B250">
-        <v>894.6819458007812</v>
-      </c>
-    </row>
-    <row r="251" spans="1:2">
+      <c r="C250">
+        <v>894.68194580078125</v>
+      </c>
+    </row>
+    <row r="251" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A251" s="1" t="s">
+        <v>247</v>
+      </c>
+      <c r="B251">
+        <f t="shared" si="3"/>
         <v>250</v>
       </c>
-      <c r="B251">
+      <c r="C251">
         <v>872.19140625</v>
       </c>
     </row>
-    <row r="252" spans="1:2">
+    <row r="252" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A252" s="1" t="s">
+        <v>248</v>
+      </c>
+      <c r="B252">
+        <f t="shared" si="3"/>
         <v>251</v>
       </c>
-      <c r="B252">
-        <v>871.6265258789062</v>
-      </c>
-    </row>
-    <row r="253" spans="1:2">
+      <c r="C252">
+        <v>871.62652587890625</v>
+      </c>
+    </row>
+    <row r="253" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A253" s="1" t="s">
+        <v>249</v>
+      </c>
+      <c r="B253">
+        <f t="shared" si="3"/>
         <v>252</v>
       </c>
-      <c r="B253">
-        <v>866.2487182617188</v>
-      </c>
-    </row>
-    <row r="254" spans="1:2">
+      <c r="C253">
+        <v>866.24871826171875</v>
+      </c>
+    </row>
+    <row r="254" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A254" s="1" t="s">
+        <v>250</v>
+      </c>
+      <c r="B254">
+        <f t="shared" si="3"/>
         <v>253</v>
       </c>
-      <c r="B254">
-        <v>862.4725952148438</v>
-      </c>
-    </row>
-    <row r="255" spans="1:2">
+      <c r="C254">
+        <v>862.47259521484375</v>
+      </c>
+    </row>
+    <row r="255" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A255" s="1" t="s">
+        <v>251</v>
+      </c>
+      <c r="B255">
+        <f t="shared" si="3"/>
         <v>254</v>
       </c>
-      <c r="B255">
-        <v>860.7319946289062</v>
-      </c>
-    </row>
-    <row r="256" spans="1:2">
+      <c r="C255">
+        <v>860.73199462890625</v>
+      </c>
+    </row>
+    <row r="256" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A256" s="1" t="s">
+        <v>252</v>
+      </c>
+      <c r="B256">
+        <f t="shared" si="3"/>
         <v>255</v>
       </c>
-      <c r="B256">
-        <v>855.3142700195312</v>
-      </c>
-    </row>
-    <row r="257" spans="1:2">
+      <c r="C256">
+        <v>855.31427001953125</v>
+      </c>
+    </row>
+    <row r="257" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A257" s="1" t="s">
+        <v>253</v>
+      </c>
+      <c r="B257">
+        <f t="shared" si="3"/>
         <v>256</v>
       </c>
-      <c r="B257">
+      <c r="C257">
         <v>849.1162109375</v>
       </c>
     </row>
-    <row r="258" spans="1:2">
+    <row r="258" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A258" s="1" t="s">
+        <v>254</v>
+      </c>
+      <c r="B258">
+        <f t="shared" si="3"/>
         <v>257</v>
       </c>
-      <c r="B258">
-        <v>844.0486450195312</v>
-      </c>
-    </row>
-    <row r="259" spans="1:2">
+      <c r="C258">
+        <v>844.04864501953125</v>
+      </c>
+    </row>
+    <row r="259" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A259" s="1" t="s">
+        <v>255</v>
+      </c>
+      <c r="B259">
+        <f t="shared" si="3"/>
         <v>258</v>
       </c>
-      <c r="B259">
+      <c r="C259">
         <v>843.7392578125</v>
       </c>
     </row>
-    <row r="260" spans="1:2">
+    <row r="260" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A260" s="1" t="s">
+        <v>256</v>
+      </c>
+      <c r="B260">
+        <f t="shared" ref="B260:B323" si="4">B259+1</f>
         <v>259</v>
       </c>
-      <c r="B260">
-        <v>837.4934692382812</v>
-      </c>
-    </row>
-    <row r="261" spans="1:2">
+      <c r="C260">
+        <v>837.49346923828125</v>
+      </c>
+    </row>
+    <row r="261" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A261" s="1" t="s">
+        <v>257</v>
+      </c>
+      <c r="B261">
+        <f t="shared" si="4"/>
         <v>260</v>
       </c>
-      <c r="B261">
-        <v>836.8873901367188</v>
-      </c>
-    </row>
-    <row r="262" spans="1:2">
+      <c r="C261">
+        <v>836.88739013671875</v>
+      </c>
+    </row>
+    <row r="262" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A262" s="1" t="s">
+        <v>258</v>
+      </c>
+      <c r="B262">
+        <f t="shared" si="4"/>
         <v>261</v>
       </c>
-      <c r="B262">
+      <c r="C262">
         <v>836.2830810546875</v>
       </c>
     </row>
-    <row r="263" spans="1:2">
+    <row r="263" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A263" s="1" t="s">
+        <v>259</v>
+      </c>
+      <c r="B263">
+        <f t="shared" si="4"/>
         <v>262</v>
       </c>
-      <c r="B263">
-        <v>833.7351684570312</v>
-      </c>
-    </row>
-    <row r="264" spans="1:2">
+      <c r="C263">
+        <v>833.73516845703125</v>
+      </c>
+    </row>
+    <row r="264" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A264" s="1" t="s">
+        <v>260</v>
+      </c>
+      <c r="B264">
+        <f t="shared" si="4"/>
         <v>263</v>
       </c>
-      <c r="B264">
-        <v>833.4855346679688</v>
-      </c>
-    </row>
-    <row r="265" spans="1:2">
+      <c r="C264">
+        <v>833.48553466796875</v>
+      </c>
+    </row>
+    <row r="265" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A265" s="1" t="s">
+        <v>261</v>
+      </c>
+      <c r="B265">
+        <f t="shared" si="4"/>
         <v>264</v>
       </c>
-      <c r="B265">
-        <v>829.5759887695312</v>
-      </c>
-    </row>
-    <row r="266" spans="1:2">
+      <c r="C265">
+        <v>829.57598876953125</v>
+      </c>
+    </row>
+    <row r="266" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A266" s="1" t="s">
+        <v>262</v>
+      </c>
+      <c r="B266">
+        <f t="shared" si="4"/>
         <v>265</v>
       </c>
-      <c r="B266">
-        <v>825.6110229492188</v>
-      </c>
-    </row>
-    <row r="267" spans="1:2">
+      <c r="C266">
+        <v>825.61102294921875</v>
+      </c>
+    </row>
+    <row r="267" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A267" s="1" t="s">
+        <v>263</v>
+      </c>
+      <c r="B267">
+        <f t="shared" si="4"/>
         <v>266</v>
       </c>
-      <c r="B267">
+      <c r="C267">
         <v>817.1781005859375</v>
       </c>
     </row>
-    <row r="268" spans="1:2">
+    <row r="268" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A268" s="1" t="s">
+        <v>264</v>
+      </c>
+      <c r="B268">
+        <f t="shared" si="4"/>
         <v>267</v>
       </c>
-      <c r="B268">
-        <v>815.7057495117188</v>
-      </c>
-    </row>
-    <row r="269" spans="1:2">
+      <c r="C268">
+        <v>815.70574951171875</v>
+      </c>
+    </row>
+    <row r="269" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A269" s="1" t="s">
+        <v>265</v>
+      </c>
+      <c r="B269">
+        <f t="shared" si="4"/>
         <v>268</v>
       </c>
-      <c r="B269">
-        <v>813.1284790039062</v>
-      </c>
-    </row>
-    <row r="270" spans="1:2">
+      <c r="C269">
+        <v>813.12847900390625</v>
+      </c>
+    </row>
+    <row r="270" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A270" s="1" t="s">
+        <v>266</v>
+      </c>
+      <c r="B270">
+        <f t="shared" si="4"/>
         <v>269</v>
       </c>
-      <c r="B270">
+      <c r="C270">
         <v>806.4576416015625</v>
       </c>
     </row>
-    <row r="271" spans="1:2">
+    <row r="271" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A271" s="1" t="s">
+        <v>267</v>
+      </c>
+      <c r="B271">
+        <f t="shared" si="4"/>
         <v>270</v>
       </c>
-      <c r="B271">
+      <c r="C271">
         <v>787.537353515625</v>
       </c>
     </row>
-    <row r="272" spans="1:2">
+    <row r="272" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A272" s="1" t="s">
+        <v>268</v>
+      </c>
+      <c r="B272">
+        <f t="shared" si="4"/>
         <v>271</v>
       </c>
-      <c r="B272">
-        <v>785.9415893554688</v>
-      </c>
-    </row>
-    <row r="273" spans="1:2">
+      <c r="C272">
+        <v>785.94158935546875</v>
+      </c>
+    </row>
+    <row r="273" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A273" s="1" t="s">
+        <v>269</v>
+      </c>
+      <c r="B273">
+        <f t="shared" si="4"/>
         <v>272</v>
       </c>
-      <c r="B273">
+      <c r="C273">
         <v>784.9627685546875</v>
       </c>
     </row>
-    <row r="274" spans="1:2">
+    <row r="274" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A274" s="1" t="s">
+        <v>270</v>
+      </c>
+      <c r="B274">
+        <f t="shared" si="4"/>
         <v>273</v>
       </c>
-      <c r="B274">
-        <v>781.0768432617188</v>
-      </c>
-    </row>
-    <row r="275" spans="1:2">
+      <c r="C274">
+        <v>781.07684326171875</v>
+      </c>
+    </row>
+    <row r="275" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A275" s="1" t="s">
+        <v>271</v>
+      </c>
+      <c r="B275">
+        <f t="shared" si="4"/>
         <v>274</v>
       </c>
-      <c r="B275">
-        <v>780.0755004882812</v>
-      </c>
-    </row>
-    <row r="276" spans="1:2">
+      <c r="C275">
+        <v>780.07550048828125</v>
+      </c>
+    </row>
+    <row r="276" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A276" s="1" t="s">
+        <v>272</v>
+      </c>
+      <c r="B276">
+        <f t="shared" si="4"/>
         <v>275</v>
       </c>
-      <c r="B276">
-        <v>771.3707885742188</v>
-      </c>
-    </row>
-    <row r="277" spans="1:2">
+      <c r="C276">
+        <v>771.37078857421875</v>
+      </c>
+    </row>
+    <row r="277" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A277" s="1" t="s">
+        <v>273</v>
+      </c>
+      <c r="B277">
+        <f t="shared" si="4"/>
         <v>276</v>
       </c>
-      <c r="B277">
-        <v>769.4065551757812</v>
-      </c>
-    </row>
-    <row r="278" spans="1:2">
+      <c r="C277">
+        <v>769.40655517578125</v>
+      </c>
+    </row>
+    <row r="278" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A278" s="1" t="s">
+        <v>274</v>
+      </c>
+      <c r="B278">
+        <f t="shared" si="4"/>
         <v>277</v>
       </c>
-      <c r="B278">
-        <v>769.1452026367188</v>
-      </c>
-    </row>
-    <row r="279" spans="1:2">
+      <c r="C278">
+        <v>769.14520263671875</v>
+      </c>
+    </row>
+    <row r="279" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A279" s="1" t="s">
+        <v>275</v>
+      </c>
+      <c r="B279">
+        <f t="shared" si="4"/>
         <v>278</v>
       </c>
-      <c r="B279">
+      <c r="C279">
         <v>767.838134765625</v>
       </c>
     </row>
-    <row r="280" spans="1:2">
+    <row r="280" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A280" s="1" t="s">
+        <v>276</v>
+      </c>
+      <c r="B280">
+        <f t="shared" si="4"/>
         <v>279</v>
       </c>
-      <c r="B280">
-        <v>766.3472290039062</v>
-      </c>
-    </row>
-    <row r="281" spans="1:2">
+      <c r="C280">
+        <v>766.34722900390625</v>
+      </c>
+    </row>
+    <row r="281" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A281" s="1" t="s">
+        <v>277</v>
+      </c>
+      <c r="B281">
+        <f t="shared" si="4"/>
         <v>280</v>
       </c>
-      <c r="B281">
-        <v>764.9911499023438</v>
-      </c>
-    </row>
-    <row r="282" spans="1:2">
+      <c r="C281">
+        <v>764.99114990234375</v>
+      </c>
+    </row>
+    <row r="282" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A282" s="1" t="s">
+        <v>278</v>
+      </c>
+      <c r="B282">
+        <f t="shared" si="4"/>
         <v>281</v>
       </c>
-      <c r="B282">
-        <v>761.0930786132812</v>
-      </c>
-    </row>
-    <row r="283" spans="1:2">
+      <c r="C282">
+        <v>761.09307861328125</v>
+      </c>
+    </row>
+    <row r="283" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A283" s="1" t="s">
+        <v>279</v>
+      </c>
+      <c r="B283">
+        <f t="shared" si="4"/>
         <v>282</v>
       </c>
-      <c r="B283">
-        <v>756.1702270507812</v>
-      </c>
-    </row>
-    <row r="284" spans="1:2">
+      <c r="C283">
+        <v>756.17022705078125</v>
+      </c>
+    </row>
+    <row r="284" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A284" s="1" t="s">
+        <v>280</v>
+      </c>
+      <c r="B284">
+        <f t="shared" si="4"/>
         <v>283</v>
       </c>
-      <c r="B284">
-        <v>754.6129760742188</v>
-      </c>
-    </row>
-    <row r="285" spans="1:2">
+      <c r="C284">
+        <v>754.61297607421875</v>
+      </c>
+    </row>
+    <row r="285" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A285" s="1" t="s">
+        <v>281</v>
+      </c>
+      <c r="B285">
+        <f t="shared" si="4"/>
         <v>284</v>
       </c>
-      <c r="B285">
-        <v>749.9553833007812</v>
-      </c>
-    </row>
-    <row r="286" spans="1:2">
+      <c r="C285">
+        <v>749.95538330078125</v>
+      </c>
+    </row>
+    <row r="286" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A286" s="1" t="s">
+        <v>282</v>
+      </c>
+      <c r="B286">
+        <f t="shared" si="4"/>
         <v>285</v>
       </c>
-      <c r="B286">
-        <v>748.9249877929688</v>
-      </c>
-    </row>
-    <row r="287" spans="1:2">
+      <c r="C286">
+        <v>748.92498779296875</v>
+      </c>
+    </row>
+    <row r="287" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A287" s="1" t="s">
+        <v>283</v>
+      </c>
+      <c r="B287">
+        <f t="shared" si="4"/>
         <v>286</v>
       </c>
-      <c r="B287">
-        <v>748.2348022460938</v>
-      </c>
-    </row>
-    <row r="288" spans="1:2">
+      <c r="C287">
+        <v>748.23480224609375</v>
+      </c>
+    </row>
+    <row r="288" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A288" s="1" t="s">
+        <v>284</v>
+      </c>
+      <c r="B288">
+        <f t="shared" si="4"/>
         <v>287</v>
       </c>
-      <c r="B288">
+      <c r="C288">
         <v>747.630859375</v>
       </c>
     </row>
-    <row r="289" spans="1:2">
+    <row r="289" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A289" s="1" t="s">
+        <v>285</v>
+      </c>
+      <c r="B289">
+        <f t="shared" si="4"/>
         <v>288</v>
       </c>
-      <c r="B289">
-        <v>743.2020874023438</v>
-      </c>
-    </row>
-    <row r="290" spans="1:2">
+      <c r="C289">
+        <v>743.20208740234375</v>
+      </c>
+    </row>
+    <row r="290" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A290" s="1" t="s">
+        <v>286</v>
+      </c>
+      <c r="B290">
+        <f t="shared" si="4"/>
         <v>289</v>
       </c>
-      <c r="B290">
-        <v>741.5735473632812</v>
-      </c>
-    </row>
-    <row r="291" spans="1:2">
+      <c r="C290">
+        <v>741.57354736328125</v>
+      </c>
+    </row>
+    <row r="291" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A291" s="1" t="s">
+        <v>287</v>
+      </c>
+      <c r="B291">
+        <f t="shared" si="4"/>
         <v>290</v>
       </c>
-      <c r="B291">
-        <v>740.1862182617188</v>
-      </c>
-    </row>
-    <row r="292" spans="1:2">
+      <c r="C291">
+        <v>740.18621826171875</v>
+      </c>
+    </row>
+    <row r="292" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A292" s="1" t="s">
+        <v>288</v>
+      </c>
+      <c r="B292">
+        <f t="shared" si="4"/>
         <v>291</v>
       </c>
-      <c r="B292">
-        <v>739.5845336914062</v>
-      </c>
-    </row>
-    <row r="293" spans="1:2">
+      <c r="C292">
+        <v>739.58453369140625</v>
+      </c>
+    </row>
+    <row r="293" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A293" s="1" t="s">
+        <v>289</v>
+      </c>
+      <c r="B293">
+        <f t="shared" si="4"/>
         <v>292</v>
       </c>
-      <c r="B293">
-        <v>737.4865112304688</v>
-      </c>
-    </row>
-    <row r="294" spans="1:2">
+      <c r="C293">
+        <v>737.48651123046875</v>
+      </c>
+    </row>
+    <row r="294" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A294" s="1" t="s">
+        <v>290</v>
+      </c>
+      <c r="B294">
+        <f t="shared" si="4"/>
         <v>293</v>
       </c>
-      <c r="B294">
-        <v>732.1547241210938</v>
-      </c>
-    </row>
-    <row r="295" spans="1:2">
+      <c r="C294">
+        <v>732.15472412109375</v>
+      </c>
+    </row>
+    <row r="295" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A295" s="1" t="s">
+        <v>291</v>
+      </c>
+      <c r="B295">
+        <f t="shared" si="4"/>
         <v>294</v>
       </c>
-      <c r="B295">
-        <v>728.1032104492188</v>
-      </c>
-    </row>
-    <row r="296" spans="1:2">
+      <c r="C295">
+        <v>728.10321044921875</v>
+      </c>
+    </row>
+    <row r="296" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A296" s="1" t="s">
+        <v>292</v>
+      </c>
+      <c r="B296">
+        <f t="shared" si="4"/>
         <v>295</v>
       </c>
-      <c r="B296">
-        <v>725.7216186523438</v>
-      </c>
-    </row>
-    <row r="297" spans="1:2">
+      <c r="C296">
+        <v>725.72161865234375</v>
+      </c>
+    </row>
+    <row r="297" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A297" s="1" t="s">
+        <v>293</v>
+      </c>
+      <c r="B297">
+        <f t="shared" si="4"/>
         <v>296</v>
       </c>
-      <c r="B297">
+      <c r="C297">
         <v>721.230712890625</v>
       </c>
     </row>
-    <row r="298" spans="1:2">
+    <row r="298" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A298" s="1" t="s">
+        <v>294</v>
+      </c>
+      <c r="B298">
+        <f t="shared" si="4"/>
         <v>297</v>
       </c>
-      <c r="B298">
-        <v>719.9423217773438</v>
-      </c>
-    </row>
-    <row r="299" spans="1:2">
+      <c r="C298">
+        <v>719.94232177734375</v>
+      </c>
+    </row>
+    <row r="299" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A299" s="1" t="s">
+        <v>295</v>
+      </c>
+      <c r="B299">
+        <f t="shared" si="4"/>
         <v>298</v>
       </c>
-      <c r="B299">
-        <v>718.0585327148438</v>
-      </c>
-    </row>
-    <row r="300" spans="1:2">
+      <c r="C299">
+        <v>718.05853271484375</v>
+      </c>
+    </row>
+    <row r="300" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A300" s="1" t="s">
+        <v>296</v>
+      </c>
+      <c r="B300">
+        <f t="shared" si="4"/>
         <v>299</v>
       </c>
-      <c r="B300">
+      <c r="C300">
         <v>715.61328125</v>
       </c>
     </row>
-    <row r="301" spans="1:2">
+    <row r="301" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A301" s="1" t="s">
+        <v>297</v>
+      </c>
+      <c r="B301">
+        <f t="shared" si="4"/>
         <v>300</v>
       </c>
-      <c r="B301">
-        <v>712.2354125976562</v>
-      </c>
-    </row>
-    <row r="302" spans="1:2">
+      <c r="C301">
+        <v>712.23541259765625</v>
+      </c>
+    </row>
+    <row r="302" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A302" s="1" t="s">
+        <v>298</v>
+      </c>
+      <c r="B302">
+        <f t="shared" si="4"/>
         <v>301</v>
       </c>
-      <c r="B302">
-        <v>711.9769897460938</v>
-      </c>
-    </row>
-    <row r="303" spans="1:2">
+      <c r="C302">
+        <v>711.97698974609375</v>
+      </c>
+    </row>
+    <row r="303" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A303" s="1" t="s">
+        <v>299</v>
+      </c>
+      <c r="B303">
+        <f t="shared" si="4"/>
         <v>302</v>
       </c>
-      <c r="B303">
-        <v>709.4384155273438</v>
-      </c>
-    </row>
-    <row r="304" spans="1:2">
+      <c r="C303">
+        <v>709.43841552734375</v>
+      </c>
+    </row>
+    <row r="304" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A304" s="1" t="s">
+        <v>300</v>
+      </c>
+      <c r="B304">
+        <f t="shared" si="4"/>
         <v>303</v>
       </c>
-      <c r="B304">
-        <v>704.9172973632812</v>
-      </c>
-    </row>
-    <row r="305" spans="1:2">
+      <c r="C304">
+        <v>704.91729736328125</v>
+      </c>
+    </row>
+    <row r="305" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A305" s="1" t="s">
+        <v>301</v>
+      </c>
+      <c r="B305">
+        <f t="shared" si="4"/>
         <v>304</v>
       </c>
-      <c r="B305">
-        <v>703.1444702148438</v>
-      </c>
-    </row>
-    <row r="306" spans="1:2">
+      <c r="C305">
+        <v>703.14447021484375</v>
+      </c>
+    </row>
+    <row r="306" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A306" s="1" t="s">
+        <v>302</v>
+      </c>
+      <c r="B306">
+        <f t="shared" si="4"/>
         <v>305</v>
       </c>
-      <c r="B306">
-        <v>703.0747680664062</v>
-      </c>
-    </row>
-    <row r="307" spans="1:2">
+      <c r="C306">
+        <v>703.07476806640625</v>
+      </c>
+    </row>
+    <row r="307" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A307" s="1" t="s">
+        <v>303</v>
+      </c>
+      <c r="B307">
+        <f t="shared" si="4"/>
         <v>306</v>
       </c>
-      <c r="B307">
+      <c r="C307">
         <v>691.0517578125</v>
       </c>
     </row>
-    <row r="308" spans="1:2">
+    <row r="308" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A308" s="1" t="s">
+        <v>304</v>
+      </c>
+      <c r="B308">
+        <f t="shared" si="4"/>
         <v>307</v>
       </c>
-      <c r="B308">
+      <c r="C308">
         <v>672.938232421875</v>
       </c>
     </row>
-    <row r="309" spans="1:2">
+    <row r="309" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A309" s="1" t="s">
+        <v>305</v>
+      </c>
+      <c r="B309">
+        <f t="shared" si="4"/>
         <v>308</v>
       </c>
-      <c r="B309">
-        <v>671.6802368164062</v>
-      </c>
-    </row>
-    <row r="310" spans="1:2">
+      <c r="C309">
+        <v>671.68023681640625</v>
+      </c>
+    </row>
+    <row r="310" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A310" s="1" t="s">
+        <v>306</v>
+      </c>
+      <c r="B310">
+        <f t="shared" si="4"/>
         <v>309</v>
       </c>
-      <c r="B310">
+      <c r="C310">
         <v>670.5125732421875</v>
       </c>
     </row>
-    <row r="311" spans="1:2">
+    <row r="311" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A311" s="1" t="s">
+        <v>307</v>
+      </c>
+      <c r="B311">
+        <f t="shared" si="4"/>
         <v>310</v>
       </c>
-      <c r="B311">
-        <v>670.0429077148438</v>
-      </c>
-    </row>
-    <row r="312" spans="1:2">
+      <c r="C311">
+        <v>670.04290771484375</v>
+      </c>
+    </row>
+    <row r="312" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A312" s="1" t="s">
+        <v>308</v>
+      </c>
+      <c r="B312">
+        <f t="shared" si="4"/>
         <v>311</v>
       </c>
-      <c r="B312">
-        <v>667.2017211914062</v>
-      </c>
-    </row>
-    <row r="313" spans="1:2">
+      <c r="C312">
+        <v>667.20172119140625</v>
+      </c>
+    </row>
+    <row r="313" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A313" s="1" t="s">
+        <v>309</v>
+      </c>
+      <c r="B313">
+        <f t="shared" si="4"/>
         <v>312</v>
       </c>
-      <c r="B313">
-        <v>635.9479370117188</v>
-      </c>
-    </row>
-    <row r="314" spans="1:2">
+      <c r="C313">
+        <v>635.94793701171875</v>
+      </c>
+    </row>
+    <row r="314" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A314" s="1" t="s">
+        <v>310</v>
+      </c>
+      <c r="B314">
+        <f t="shared" si="4"/>
         <v>313</v>
       </c>
-      <c r="B314">
-        <v>634.4290161132812</v>
-      </c>
-    </row>
-    <row r="315" spans="1:2">
+      <c r="C314">
+        <v>634.42901611328125</v>
+      </c>
+    </row>
+    <row r="315" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A315" s="1" t="s">
+        <v>311</v>
+      </c>
+      <c r="B315">
+        <f t="shared" si="4"/>
         <v>314</v>
       </c>
-      <c r="B315">
-        <v>630.2980346679688</v>
-      </c>
-    </row>
-    <row r="316" spans="1:2">
+      <c r="C315">
+        <v>630.29803466796875</v>
+      </c>
+    </row>
+    <row r="316" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A316" s="1" t="s">
+        <v>312</v>
+      </c>
+      <c r="B316">
+        <f t="shared" si="4"/>
         <v>315</v>
       </c>
-      <c r="B316">
-        <v>630.2276000976562</v>
-      </c>
-    </row>
-    <row r="317" spans="1:2">
+      <c r="C316">
+        <v>630.22760009765625</v>
+      </c>
+    </row>
+    <row r="317" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A317" s="1" t="s">
+        <v>313</v>
+      </c>
+      <c r="B317">
+        <f t="shared" si="4"/>
         <v>316</v>
       </c>
-      <c r="B317">
-        <v>625.9893188476562</v>
-      </c>
-    </row>
-    <row r="318" spans="1:2">
+      <c r="C317">
+        <v>625.98931884765625</v>
+      </c>
+    </row>
+    <row r="318" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A318" s="1" t="s">
+        <v>314</v>
+      </c>
+      <c r="B318">
+        <f t="shared" si="4"/>
         <v>317</v>
       </c>
-      <c r="B318">
-        <v>625.8078002929688</v>
-      </c>
-    </row>
-    <row r="319" spans="1:2">
+      <c r="C318">
+        <v>625.80780029296875</v>
+      </c>
+    </row>
+    <row r="319" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A319" s="1" t="s">
+        <v>315</v>
+      </c>
+      <c r="B319">
+        <f t="shared" si="4"/>
         <v>318</v>
       </c>
-      <c r="B319">
+      <c r="C319">
         <v>625.602294921875</v>
       </c>
     </row>
-    <row r="320" spans="1:2">
+    <row r="320" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A320" s="1" t="s">
+        <v>316</v>
+      </c>
+      <c r="B320">
+        <f t="shared" si="4"/>
         <v>319</v>
       </c>
-      <c r="B320">
-        <v>624.9442749023438</v>
-      </c>
-    </row>
-    <row r="321" spans="1:2">
+      <c r="C320">
+        <v>624.94427490234375</v>
+      </c>
+    </row>
+    <row r="321" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A321" s="1" t="s">
+        <v>317</v>
+      </c>
+      <c r="B321">
+        <f t="shared" si="4"/>
         <v>320</v>
       </c>
-      <c r="B321">
-        <v>622.0244750976562</v>
-      </c>
-    </row>
-    <row r="322" spans="1:2">
+      <c r="C321">
+        <v>622.02447509765625</v>
+      </c>
+    </row>
+    <row r="322" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A322" s="1" t="s">
+        <v>318</v>
+      </c>
+      <c r="B322">
+        <f t="shared" si="4"/>
         <v>321</v>
       </c>
-      <c r="B322">
-        <v>620.0191040039062</v>
-      </c>
-    </row>
-    <row r="323" spans="1:2">
+      <c r="C322">
+        <v>620.01910400390625</v>
+      </c>
+    </row>
+    <row r="323" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A323" s="1" t="s">
+        <v>319</v>
+      </c>
+      <c r="B323">
+        <f t="shared" si="4"/>
         <v>322</v>
       </c>
-      <c r="B323">
+      <c r="C323">
         <v>614.421142578125</v>
       </c>
     </row>
-    <row r="324" spans="1:2">
+    <row r="324" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A324" s="1" t="s">
+        <v>320</v>
+      </c>
+      <c r="B324">
+        <f t="shared" ref="B324:B387" si="5">B323+1</f>
         <v>323</v>
       </c>
-      <c r="B324">
-        <v>612.6265258789062</v>
-      </c>
-    </row>
-    <row r="325" spans="1:2">
+      <c r="C324">
+        <v>612.62652587890625</v>
+      </c>
+    </row>
+    <row r="325" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A325" s="1" t="s">
+        <v>321</v>
+      </c>
+      <c r="B325">
+        <f t="shared" si="5"/>
         <v>324</v>
       </c>
-      <c r="B325">
-        <v>609.6126098632812</v>
-      </c>
-    </row>
-    <row r="326" spans="1:2">
+      <c r="C325">
+        <v>609.61260986328125</v>
+      </c>
+    </row>
+    <row r="326" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A326" s="1" t="s">
+        <v>322</v>
+      </c>
+      <c r="B326">
+        <f t="shared" si="5"/>
         <v>325</v>
       </c>
-      <c r="B326">
-        <v>607.6950073242188</v>
-      </c>
-    </row>
-    <row r="327" spans="1:2">
+      <c r="C326">
+        <v>607.69500732421875</v>
+      </c>
+    </row>
+    <row r="327" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A327" s="1" t="s">
+        <v>323</v>
+      </c>
+      <c r="B327">
+        <f t="shared" si="5"/>
         <v>326</v>
       </c>
-      <c r="B327">
-        <v>602.1489868164062</v>
-      </c>
-    </row>
-    <row r="328" spans="1:2">
+      <c r="C327">
+        <v>602.14898681640625</v>
+      </c>
+    </row>
+    <row r="328" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A328" s="1" t="s">
+        <v>324</v>
+      </c>
+      <c r="B328">
+        <f t="shared" si="5"/>
         <v>327</v>
       </c>
-      <c r="B328">
-        <v>594.6453247070312</v>
-      </c>
-    </row>
-    <row r="329" spans="1:2">
+      <c r="C328">
+        <v>594.64532470703125</v>
+      </c>
+    </row>
+    <row r="329" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A329" s="1" t="s">
+        <v>325</v>
+      </c>
+      <c r="B329">
+        <f t="shared" si="5"/>
         <v>328</v>
       </c>
-      <c r="B329">
-        <v>588.8367309570312</v>
-      </c>
-    </row>
-    <row r="330" spans="1:2">
+      <c r="C329">
+        <v>588.83673095703125</v>
+      </c>
+    </row>
+    <row r="330" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A330" s="1" t="s">
+        <v>326</v>
+      </c>
+      <c r="B330">
+        <f t="shared" si="5"/>
         <v>329</v>
       </c>
-      <c r="B330">
-        <v>588.5368041992188</v>
-      </c>
-    </row>
-    <row r="331" spans="1:2">
+      <c r="C330">
+        <v>588.53680419921875</v>
+      </c>
+    </row>
+    <row r="331" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A331" s="1" t="s">
+        <v>327</v>
+      </c>
+      <c r="B331">
+        <f t="shared" si="5"/>
         <v>330</v>
       </c>
-      <c r="B331">
-        <v>586.2880249023438</v>
-      </c>
-    </row>
-    <row r="332" spans="1:2">
+      <c r="C331">
+        <v>586.28802490234375</v>
+      </c>
+    </row>
+    <row r="332" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A332" s="1" t="s">
+        <v>328</v>
+      </c>
+      <c r="B332">
+        <f t="shared" si="5"/>
         <v>331</v>
       </c>
-      <c r="B332">
-        <v>585.5604858398438</v>
-      </c>
-    </row>
-    <row r="333" spans="1:2">
+      <c r="C332">
+        <v>585.56048583984375</v>
+      </c>
+    </row>
+    <row r="333" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A333" s="1" t="s">
+        <v>329</v>
+      </c>
+      <c r="B333">
+        <f t="shared" si="5"/>
         <v>332</v>
       </c>
-      <c r="B333">
+      <c r="C333">
         <v>584.2164306640625</v>
       </c>
     </row>
-    <row r="334" spans="1:2">
+    <row r="334" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A334" s="1" t="s">
+        <v>330</v>
+      </c>
+      <c r="B334">
+        <f t="shared" si="5"/>
         <v>333</v>
       </c>
-      <c r="B334">
-        <v>580.8013305664062</v>
-      </c>
-    </row>
-    <row r="335" spans="1:2">
+      <c r="C334">
+        <v>580.80133056640625</v>
+      </c>
+    </row>
+    <row r="335" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A335" s="1" t="s">
+        <v>331</v>
+      </c>
+      <c r="B335">
+        <f t="shared" si="5"/>
         <v>334</v>
       </c>
-      <c r="B335">
-        <v>571.6417846679688</v>
-      </c>
-    </row>
-    <row r="336" spans="1:2">
+      <c r="C335">
+        <v>571.64178466796875</v>
+      </c>
+    </row>
+    <row r="336" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A336" s="1" t="s">
+        <v>332</v>
+      </c>
+      <c r="B336">
+        <f t="shared" si="5"/>
         <v>335</v>
       </c>
-      <c r="B336">
-        <v>571.5377807617188</v>
-      </c>
-    </row>
-    <row r="337" spans="1:2">
+      <c r="C336">
+        <v>571.53778076171875</v>
+      </c>
+    </row>
+    <row r="337" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A337" s="1" t="s">
+        <v>333</v>
+      </c>
+      <c r="B337">
+        <f t="shared" si="5"/>
         <v>336</v>
       </c>
-      <c r="B337">
+      <c r="C337">
         <v>559.106201171875</v>
       </c>
     </row>
-    <row r="338" spans="1:2">
+    <row r="338" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A338" s="1" t="s">
+        <v>334</v>
+      </c>
+      <c r="B338">
+        <f t="shared" si="5"/>
         <v>337</v>
       </c>
-      <c r="B338">
-        <v>558.8756713867188</v>
-      </c>
-    </row>
-    <row r="339" spans="1:2">
+      <c r="C338">
+        <v>558.87567138671875</v>
+      </c>
+    </row>
+    <row r="339" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A339" s="1" t="s">
+        <v>335</v>
+      </c>
+      <c r="B339">
+        <f t="shared" si="5"/>
         <v>338</v>
       </c>
-      <c r="B339">
+      <c r="C339">
         <v>552.4779052734375</v>
       </c>
     </row>
-    <row r="340" spans="1:2">
+    <row r="340" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A340" s="1" t="s">
+        <v>336</v>
+      </c>
+      <c r="B340">
+        <f t="shared" si="5"/>
         <v>339</v>
       </c>
-      <c r="B340">
+      <c r="C340">
         <v>549.3695068359375</v>
       </c>
     </row>
-    <row r="341" spans="1:2">
+    <row r="341" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A341" s="1" t="s">
+        <v>337</v>
+      </c>
+      <c r="B341">
+        <f t="shared" si="5"/>
         <v>340</v>
       </c>
-      <c r="B341">
-        <v>542.0393676757812</v>
-      </c>
-    </row>
-    <row r="342" spans="1:2">
+      <c r="C341">
+        <v>542.03936767578125</v>
+      </c>
+    </row>
+    <row r="342" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A342" s="1" t="s">
+        <v>338</v>
+      </c>
+      <c r="B342">
+        <f t="shared" si="5"/>
         <v>341</v>
       </c>
-      <c r="B342">
-        <v>539.3820190429688</v>
-      </c>
-    </row>
-    <row r="343" spans="1:2">
+      <c r="C342">
+        <v>539.38201904296875</v>
+      </c>
+    </row>
+    <row r="343" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A343" s="1" t="s">
+        <v>339</v>
+      </c>
+      <c r="B343">
+        <f t="shared" si="5"/>
         <v>342</v>
       </c>
-      <c r="B343">
-        <v>537.0835571289062</v>
-      </c>
-    </row>
-    <row r="344" spans="1:2">
+      <c r="C343">
+        <v>537.08355712890625</v>
+      </c>
+    </row>
+    <row r="344" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A344" s="1" t="s">
+        <v>340</v>
+      </c>
+      <c r="B344">
+        <f t="shared" si="5"/>
         <v>343</v>
       </c>
-      <c r="B344">
-        <v>535.4229125976562</v>
-      </c>
-    </row>
-    <row r="345" spans="1:2">
+      <c r="C344">
+        <v>535.42291259765625</v>
+      </c>
+    </row>
+    <row r="345" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A345" s="1" t="s">
+        <v>341</v>
+      </c>
+      <c r="B345">
+        <f t="shared" si="5"/>
         <v>344</v>
       </c>
-      <c r="B345">
+      <c r="C345">
         <v>529.6864013671875</v>
       </c>
     </row>
-    <row r="346" spans="1:2">
+    <row r="346" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A346" s="1" t="s">
+        <v>342</v>
+      </c>
+      <c r="B346">
+        <f t="shared" si="5"/>
         <v>345</v>
       </c>
-      <c r="B346">
-        <v>528.1311645507812</v>
-      </c>
-    </row>
-    <row r="347" spans="1:2">
+      <c r="C346">
+        <v>528.13116455078125</v>
+      </c>
+    </row>
+    <row r="347" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A347" s="1" t="s">
+        <v>343</v>
+      </c>
+      <c r="B347">
+        <f t="shared" si="5"/>
         <v>346</v>
       </c>
-      <c r="B347">
-        <v>520.3384399414062</v>
-      </c>
-    </row>
-    <row r="348" spans="1:2">
+      <c r="C347">
+        <v>520.33843994140625</v>
+      </c>
+    </row>
+    <row r="348" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A348" s="1" t="s">
+        <v>344</v>
+      </c>
+      <c r="B348">
+        <f t="shared" si="5"/>
         <v>347</v>
       </c>
-      <c r="B348">
+      <c r="C348">
         <v>519.5909423828125</v>
       </c>
     </row>
-    <row r="349" spans="1:2">
+    <row r="349" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A349" s="1" t="s">
+        <v>345</v>
+      </c>
+      <c r="B349">
+        <f t="shared" si="5"/>
         <v>348</v>
       </c>
-      <c r="B349">
+      <c r="C349">
         <v>513.1834716796875</v>
       </c>
     </row>
-    <row r="350" spans="1:2">
+    <row r="350" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A350" s="1" t="s">
+        <v>346</v>
+      </c>
+      <c r="B350">
+        <f t="shared" si="5"/>
         <v>349</v>
       </c>
-      <c r="B350">
-        <v>510.9020385742188</v>
-      </c>
-    </row>
-    <row r="351" spans="1:2">
+      <c r="C350">
+        <v>510.90203857421881</v>
+      </c>
+    </row>
+    <row r="351" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A351" s="1" t="s">
+        <v>347</v>
+      </c>
+      <c r="B351">
+        <f t="shared" si="5"/>
         <v>350</v>
       </c>
-      <c r="B351">
-        <v>508.5960388183594</v>
-      </c>
-    </row>
-    <row r="352" spans="1:2">
+      <c r="C351">
+        <v>508.59603881835938</v>
+      </c>
+    </row>
+    <row r="352" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A352" s="1" t="s">
+        <v>348</v>
+      </c>
+      <c r="B352">
+        <f t="shared" si="5"/>
         <v>351</v>
       </c>
-      <c r="B352">
-        <v>499.2912292480469</v>
-      </c>
-    </row>
-    <row r="353" spans="1:2">
+      <c r="C352">
+        <v>499.29122924804688</v>
+      </c>
+    </row>
+    <row r="353" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A353" s="1" t="s">
+        <v>349</v>
+      </c>
+      <c r="B353">
+        <f t="shared" si="5"/>
         <v>352</v>
       </c>
-      <c r="B353">
-        <v>493.0346069335938</v>
-      </c>
-    </row>
-    <row r="354" spans="1:2">
+      <c r="C353">
+        <v>493.03460693359381</v>
+      </c>
+    </row>
+    <row r="354" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A354" s="1" t="s">
+        <v>350</v>
+      </c>
+      <c r="B354">
+        <f t="shared" si="5"/>
         <v>353</v>
       </c>
-      <c r="B354">
-        <v>492.5689086914062</v>
-      </c>
-    </row>
-    <row r="355" spans="1:2">
+      <c r="C354">
+        <v>492.56890869140619</v>
+      </c>
+    </row>
+    <row r="355" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A355" s="1" t="s">
+        <v>351</v>
+      </c>
+      <c r="B355">
+        <f t="shared" si="5"/>
         <v>354</v>
       </c>
-      <c r="B355">
+      <c r="C355">
         <v>490.6480712890625</v>
       </c>
     </row>
-    <row r="356" spans="1:2">
+    <row r="356" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A356" s="1" t="s">
+        <v>352</v>
+      </c>
+      <c r="B356">
+        <f t="shared" si="5"/>
         <v>355</v>
       </c>
-      <c r="B356">
-        <v>490.3027954101562</v>
-      </c>
-    </row>
-    <row r="357" spans="1:2">
+      <c r="C356">
+        <v>490.30279541015619</v>
+      </c>
+    </row>
+    <row r="357" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A357" s="1" t="s">
+        <v>353</v>
+      </c>
+      <c r="B357">
+        <f t="shared" si="5"/>
         <v>356</v>
       </c>
-      <c r="B357">
+      <c r="C357">
         <v>488.1546630859375</v>
       </c>
     </row>
-    <row r="358" spans="1:2">
+    <row r="358" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A358" s="1" t="s">
+        <v>354</v>
+      </c>
+      <c r="B358">
+        <f t="shared" si="5"/>
         <v>357</v>
       </c>
-      <c r="B358">
+      <c r="C358">
         <v>486.9002685546875</v>
       </c>
     </row>
-    <row r="359" spans="1:2">
+    <row r="359" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A359" s="1" t="s">
+        <v>355</v>
+      </c>
+      <c r="B359">
+        <f t="shared" si="5"/>
         <v>358</v>
       </c>
-      <c r="B359">
-        <v>486.7639770507812</v>
-      </c>
-    </row>
-    <row r="360" spans="1:2">
+      <c r="C359">
+        <v>486.76397705078119</v>
+      </c>
+    </row>
+    <row r="360" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A360" s="1" t="s">
+        <v>356</v>
+      </c>
+      <c r="B360">
+        <f t="shared" si="5"/>
         <v>359</v>
       </c>
-      <c r="B360">
+      <c r="C360">
         <v>475.4237060546875</v>
       </c>
     </row>
-    <row r="361" spans="1:2">
+    <row r="361" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A361" s="1" t="s">
+        <v>357</v>
+      </c>
+      <c r="B361">
+        <f t="shared" si="5"/>
         <v>360</v>
       </c>
-      <c r="B361">
+      <c r="C361">
         <v>467.65185546875</v>
       </c>
     </row>
-    <row r="362" spans="1:2">
+    <row r="362" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A362" s="1" t="s">
+        <v>358</v>
+      </c>
+      <c r="B362">
+        <f t="shared" si="5"/>
         <v>361</v>
       </c>
-      <c r="B362">
+      <c r="C362">
         <v>466.6558837890625</v>
       </c>
     </row>
-    <row r="363" spans="1:2">
+    <row r="363" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A363" s="1" t="s">
+        <v>359</v>
+      </c>
+      <c r="B363">
+        <f t="shared" si="5"/>
         <v>362</v>
       </c>
-      <c r="B363">
-        <v>459.3030395507812</v>
-      </c>
-    </row>
-    <row r="364" spans="1:2">
+      <c r="C363">
+        <v>459.30303955078119</v>
+      </c>
+    </row>
+    <row r="364" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A364" s="1" t="s">
+        <v>360</v>
+      </c>
+      <c r="B364">
+        <f t="shared" si="5"/>
         <v>363</v>
       </c>
-      <c r="B364">
-        <v>457.4457092285156</v>
-      </c>
-    </row>
-    <row r="365" spans="1:2">
+      <c r="C364">
+        <v>457.44570922851563</v>
+      </c>
+    </row>
+    <row r="365" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A365" s="1" t="s">
+        <v>361</v>
+      </c>
+      <c r="B365">
+        <f t="shared" si="5"/>
         <v>364</v>
       </c>
-      <c r="B365">
-        <v>454.2772521972656</v>
-      </c>
-    </row>
-    <row r="366" spans="1:2">
+      <c r="C365">
+        <v>454.27725219726563</v>
+      </c>
+    </row>
+    <row r="366" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A366" s="1" t="s">
+        <v>362</v>
+      </c>
+      <c r="B366">
+        <f t="shared" si="5"/>
         <v>365</v>
       </c>
-      <c r="B366">
-        <v>453.9543151855469</v>
-      </c>
-    </row>
-    <row r="367" spans="1:2">
+      <c r="C366">
+        <v>453.95431518554688</v>
+      </c>
+    </row>
+    <row r="367" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A367" s="1" t="s">
+        <v>363</v>
+      </c>
+      <c r="B367">
+        <f t="shared" si="5"/>
         <v>366</v>
       </c>
-      <c r="B367">
-        <v>452.9566040039062</v>
-      </c>
-    </row>
-    <row r="368" spans="1:2">
+      <c r="C367">
+        <v>452.95660400390619</v>
+      </c>
+    </row>
+    <row r="368" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A368" s="1" t="s">
+        <v>364</v>
+      </c>
+      <c r="B368">
+        <f t="shared" si="5"/>
         <v>367</v>
       </c>
-      <c r="B368">
-        <v>446.6652221679688</v>
-      </c>
-    </row>
-    <row r="369" spans="1:2">
+      <c r="C368">
+        <v>446.66522216796881</v>
+      </c>
+    </row>
+    <row r="369" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A369" s="1" t="s">
+        <v>365</v>
+      </c>
+      <c r="B369">
+        <f t="shared" si="5"/>
         <v>368</v>
       </c>
-      <c r="B369">
-        <v>446.5664672851562</v>
-      </c>
-    </row>
-    <row r="370" spans="1:2">
+      <c r="C369">
+        <v>446.56646728515619</v>
+      </c>
+    </row>
+    <row r="370" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A370" s="1" t="s">
+        <v>366</v>
+      </c>
+      <c r="B370">
+        <f t="shared" si="5"/>
         <v>369</v>
       </c>
-      <c r="B370">
-        <v>436.1981811523438</v>
-      </c>
-    </row>
-    <row r="371" spans="1:2">
+      <c r="C370">
+        <v>436.19818115234381</v>
+      </c>
+    </row>
+    <row r="371" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A371" s="1" t="s">
+        <v>367</v>
+      </c>
+      <c r="B371">
+        <f t="shared" si="5"/>
         <v>370</v>
       </c>
-      <c r="B371">
+      <c r="C371">
         <v>433.042236328125</v>
       </c>
     </row>
-    <row r="372" spans="1:2">
+    <row r="372" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A372" s="1" t="s">
+        <v>368</v>
+      </c>
+      <c r="B372">
+        <f t="shared" si="5"/>
         <v>371</v>
       </c>
-      <c r="B372">
+      <c r="C372">
         <v>421.4713134765625</v>
       </c>
     </row>
-    <row r="373" spans="1:2">
+    <row r="373" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A373" s="1" t="s">
+        <v>369</v>
+      </c>
+      <c r="B373">
+        <f t="shared" si="5"/>
         <v>372</v>
       </c>
-      <c r="B373">
+      <c r="C373">
         <v>417.7825927734375</v>
       </c>
     </row>
-    <row r="374" spans="1:2">
+    <row r="374" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A374" s="1" t="s">
+        <v>370</v>
+      </c>
+      <c r="B374">
+        <f t="shared" si="5"/>
         <v>373</v>
       </c>
-      <c r="B374">
+      <c r="C374">
         <v>415.8905029296875</v>
       </c>
     </row>
-    <row r="375" spans="1:2">
+    <row r="375" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A375" s="1" t="s">
+        <v>371</v>
+      </c>
+      <c r="B375">
+        <f t="shared" si="5"/>
         <v>374</v>
       </c>
-      <c r="B375">
+      <c r="C375">
         <v>415.4942626953125</v>
       </c>
     </row>
-    <row r="376" spans="1:2">
+    <row r="376" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A376" s="1" t="s">
+        <v>372</v>
+      </c>
+      <c r="B376">
+        <f t="shared" si="5"/>
         <v>375</v>
       </c>
-      <c r="B376">
+      <c r="C376">
         <v>414.207275390625</v>
       </c>
     </row>
-    <row r="377" spans="1:2">
+    <row r="377" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A377" s="1" t="s">
+        <v>373</v>
+      </c>
+      <c r="B377">
+        <f t="shared" si="5"/>
         <v>376</v>
       </c>
-      <c r="B377">
+      <c r="C377">
         <v>409.53515625</v>
       </c>
     </row>
-    <row r="378" spans="1:2">
+    <row r="378" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A378" s="1" t="s">
+        <v>374</v>
+      </c>
+      <c r="B378">
+        <f t="shared" si="5"/>
         <v>377</v>
       </c>
-      <c r="B378">
+      <c r="C378">
         <v>404.544921875</v>
       </c>
     </row>
-    <row r="379" spans="1:2">
+    <row r="379" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A379" s="1" t="s">
+        <v>375</v>
+      </c>
+      <c r="B379">
+        <f t="shared" si="5"/>
         <v>378</v>
       </c>
-      <c r="B379">
-        <v>404.1318054199219</v>
-      </c>
-    </row>
-    <row r="380" spans="1:2">
+      <c r="C379">
+        <v>404.13180541992188</v>
+      </c>
+    </row>
+    <row r="380" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A380" s="1" t="s">
+        <v>376</v>
+      </c>
+      <c r="B380">
+        <f t="shared" si="5"/>
         <v>379</v>
       </c>
-      <c r="B380">
-        <v>402.3727111816406</v>
-      </c>
-    </row>
-    <row r="381" spans="1:2">
+      <c r="C380">
+        <v>402.37271118164063</v>
+      </c>
+    </row>
+    <row r="381" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A381" s="1" t="s">
+        <v>377</v>
+      </c>
+      <c r="B381">
+        <f t="shared" si="5"/>
         <v>380</v>
       </c>
-      <c r="B381">
-        <v>397.9408569335938</v>
-      </c>
-    </row>
-    <row r="382" spans="1:2">
+      <c r="C381">
+        <v>397.94085693359381</v>
+      </c>
+    </row>
+    <row r="382" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A382" s="1" t="s">
+        <v>378</v>
+      </c>
+      <c r="B382">
+        <f t="shared" si="5"/>
         <v>381</v>
       </c>
-      <c r="B382">
-        <v>382.9251098632812</v>
-      </c>
-    </row>
-    <row r="383" spans="1:2">
+      <c r="C382">
+        <v>382.92510986328119</v>
+      </c>
+    </row>
+    <row r="383" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A383" s="1" t="s">
+        <v>379</v>
+      </c>
+      <c r="B383">
+        <f t="shared" si="5"/>
         <v>382</v>
       </c>
-      <c r="B383">
-        <v>380.8287963867188</v>
-      </c>
-    </row>
-    <row r="384" spans="1:2">
+      <c r="C383">
+        <v>380.82879638671881</v>
+      </c>
+    </row>
+    <row r="384" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A384" s="1" t="s">
+        <v>380</v>
+      </c>
+      <c r="B384">
+        <f t="shared" si="5"/>
         <v>383</v>
       </c>
-      <c r="B384">
+      <c r="C384">
         <v>373.3973388671875</v>
       </c>
     </row>
-    <row r="385" spans="1:2">
+    <row r="385" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A385" s="1" t="s">
+        <v>381</v>
+      </c>
+      <c r="B385">
+        <f t="shared" si="5"/>
         <v>384</v>
       </c>
-      <c r="B385">
-        <v>371.6516723632812</v>
-      </c>
-    </row>
-    <row r="386" spans="1:2">
+      <c r="C385">
+        <v>371.65167236328119</v>
+      </c>
+    </row>
+    <row r="386" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A386" s="1" t="s">
+        <v>382</v>
+      </c>
+      <c r="B386">
+        <f t="shared" si="5"/>
         <v>385</v>
       </c>
-      <c r="B386">
-        <v>368.6179809570312</v>
-      </c>
-    </row>
-    <row r="387" spans="1:2">
+      <c r="C386">
+        <v>368.61798095703119</v>
+      </c>
+    </row>
+    <row r="387" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A387" s="1" t="s">
+        <v>383</v>
+      </c>
+      <c r="B387">
+        <f t="shared" si="5"/>
         <v>386</v>
       </c>
-      <c r="B387">
-        <v>366.1052856445312</v>
-      </c>
-    </row>
-    <row r="388" spans="1:2">
+      <c r="C387">
+        <v>366.10528564453119</v>
+      </c>
+    </row>
+    <row r="388" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A388" s="1" t="s">
+        <v>384</v>
+      </c>
+      <c r="B388">
+        <f t="shared" ref="B388:B434" si="6">B387+1</f>
         <v>387</v>
       </c>
-      <c r="B388">
-        <v>365.8015441894531</v>
-      </c>
-    </row>
-    <row r="389" spans="1:2">
+      <c r="C388">
+        <v>365.80154418945313</v>
+      </c>
+    </row>
+    <row r="389" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A389" s="1" t="s">
+        <v>385</v>
+      </c>
+      <c r="B389">
+        <f t="shared" si="6"/>
         <v>388</v>
       </c>
-      <c r="B389">
+      <c r="C389">
         <v>359.7120361328125</v>
       </c>
     </row>
-    <row r="390" spans="1:2">
+    <row r="390" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A390" s="1" t="s">
+        <v>386</v>
+      </c>
+      <c r="B390">
+        <f t="shared" si="6"/>
         <v>389</v>
       </c>
-      <c r="B390">
-        <v>358.3483276367188</v>
-      </c>
-    </row>
-    <row r="391" spans="1:2">
+      <c r="C390">
+        <v>358.34832763671881</v>
+      </c>
+    </row>
+    <row r="391" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A391" s="1" t="s">
+        <v>387</v>
+      </c>
+      <c r="B391">
+        <f t="shared" si="6"/>
         <v>390</v>
       </c>
-      <c r="B391">
+      <c r="C391">
         <v>356.3756103515625</v>
       </c>
     </row>
-    <row r="392" spans="1:2">
+    <row r="392" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A392" s="1" t="s">
+        <v>388</v>
+      </c>
+      <c r="B392">
+        <f t="shared" si="6"/>
         <v>391</v>
       </c>
-      <c r="B392">
-        <v>346.9131164550781</v>
-      </c>
-    </row>
-    <row r="393" spans="1:2">
+      <c r="C392">
+        <v>346.91311645507813</v>
+      </c>
+    </row>
+    <row r="393" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A393" s="1" t="s">
+        <v>389</v>
+      </c>
+      <c r="B393">
+        <f t="shared" si="6"/>
         <v>392</v>
       </c>
-      <c r="B393">
+      <c r="C393">
         <v>344.1204833984375</v>
       </c>
     </row>
-    <row r="394" spans="1:2">
+    <row r="394" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A394" s="1" t="s">
+        <v>390</v>
+      </c>
+      <c r="B394">
+        <f t="shared" si="6"/>
         <v>393</v>
       </c>
-      <c r="B394">
+      <c r="C394">
         <v>333.7681884765625</v>
       </c>
     </row>
-    <row r="395" spans="1:2">
+    <row r="395" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A395" s="1" t="s">
+        <v>391</v>
+      </c>
+      <c r="B395">
+        <f t="shared" si="6"/>
         <v>394</v>
       </c>
-      <c r="B395">
-        <v>326.8643188476562</v>
-      </c>
-    </row>
-    <row r="396" spans="1:2">
+      <c r="C395">
+        <v>326.86431884765619</v>
+      </c>
+    </row>
+    <row r="396" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A396" s="1" t="s">
+        <v>392</v>
+      </c>
+      <c r="B396">
+        <f t="shared" si="6"/>
         <v>395</v>
       </c>
-      <c r="B396">
+      <c r="C396">
         <v>326.688720703125</v>
       </c>
     </row>
-    <row r="397" spans="1:2">
+    <row r="397" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A397" s="1" t="s">
+        <v>393</v>
+      </c>
+      <c r="B397">
+        <f t="shared" si="6"/>
         <v>396</v>
       </c>
-      <c r="B397">
-        <v>310.0320434570312</v>
-      </c>
-    </row>
-    <row r="398" spans="1:2">
+      <c r="C397">
+        <v>310.03204345703119</v>
+      </c>
+    </row>
+    <row r="398" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A398" s="1" t="s">
+        <v>394</v>
+      </c>
+      <c r="B398">
+        <f t="shared" si="6"/>
         <v>397</v>
       </c>
-      <c r="B398">
-        <v>305.8723754882812</v>
-      </c>
-    </row>
-    <row r="399" spans="1:2">
+      <c r="C398">
+        <v>305.87237548828119</v>
+      </c>
+    </row>
+    <row r="399" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A399" s="1" t="s">
+        <v>395</v>
+      </c>
+      <c r="B399">
+        <f t="shared" si="6"/>
         <v>398</v>
       </c>
-      <c r="B399">
-        <v>302.9232788085938</v>
-      </c>
-    </row>
-    <row r="400" spans="1:2">
+      <c r="C399">
+        <v>302.92327880859381</v>
+      </c>
+    </row>
+    <row r="400" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A400" s="1" t="s">
+        <v>396</v>
+      </c>
+      <c r="B400">
+        <f t="shared" si="6"/>
         <v>399</v>
       </c>
-      <c r="B400">
+      <c r="C400">
         <v>300.8360595703125</v>
       </c>
     </row>
-    <row r="401" spans="1:2">
+    <row r="401" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A401" s="1" t="s">
+        <v>397</v>
+      </c>
+      <c r="B401">
+        <f t="shared" si="6"/>
         <v>400</v>
       </c>
-      <c r="B401">
-        <v>284.2619018554688</v>
-      </c>
-    </row>
-    <row r="402" spans="1:2">
+      <c r="C401">
+        <v>284.26190185546881</v>
+      </c>
+    </row>
+    <row r="402" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A402" s="1" t="s">
+        <v>398</v>
+      </c>
+      <c r="B402">
+        <f t="shared" si="6"/>
         <v>401</v>
       </c>
-      <c r="B402">
-        <v>282.9535217285156</v>
-      </c>
-    </row>
-    <row r="403" spans="1:2">
+      <c r="C402">
+        <v>282.95352172851563</v>
+      </c>
+    </row>
+    <row r="403" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A403" s="1" t="s">
+        <v>399</v>
+      </c>
+      <c r="B403">
+        <f t="shared" si="6"/>
         <v>402</v>
       </c>
-      <c r="B403">
-        <v>282.7728881835938</v>
-      </c>
-    </row>
-    <row r="404" spans="1:2">
+      <c r="C403">
+        <v>282.77288818359381</v>
+      </c>
+    </row>
+    <row r="404" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A404" s="1" t="s">
+        <v>400</v>
+      </c>
+      <c r="B404">
+        <f t="shared" si="6"/>
         <v>403</v>
       </c>
-      <c r="B404">
+      <c r="C404">
         <v>269.542724609375</v>
       </c>
     </row>
-    <row r="405" spans="1:2">
+    <row r="405" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A405" s="1" t="s">
+        <v>401</v>
+      </c>
+      <c r="B405">
+        <f t="shared" si="6"/>
         <v>404</v>
       </c>
-      <c r="B405">
-        <v>265.7115173339844</v>
-      </c>
-    </row>
-    <row r="406" spans="1:2">
+      <c r="C405">
+        <v>265.71151733398438</v>
+      </c>
+    </row>
+    <row r="406" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A406" s="1" t="s">
+        <v>402</v>
+      </c>
+      <c r="B406">
+        <f t="shared" si="6"/>
         <v>405</v>
       </c>
-      <c r="B406">
-        <v>254.5115509033203</v>
-      </c>
-    </row>
-    <row r="407" spans="1:2">
+      <c r="C406">
+        <v>254.51155090332031</v>
+      </c>
+    </row>
+    <row r="407" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A407" s="1" t="s">
+        <v>403</v>
+      </c>
+      <c r="B407">
+        <f t="shared" si="6"/>
         <v>406</v>
       </c>
-      <c r="B407">
-        <v>253.7256317138672</v>
-      </c>
-    </row>
-    <row r="408" spans="1:2">
+      <c r="C407">
+        <v>253.72563171386719</v>
+      </c>
+    </row>
+    <row r="408" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A408" s="1" t="s">
+        <v>404</v>
+      </c>
+      <c r="B408">
+        <f t="shared" si="6"/>
         <v>407</v>
       </c>
-      <c r="B408">
-        <v>250.2947845458984</v>
-      </c>
-    </row>
-    <row r="409" spans="1:2">
+      <c r="C408">
+        <v>250.29478454589841</v>
+      </c>
+    </row>
+    <row r="409" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A409" s="1" t="s">
+        <v>405</v>
+      </c>
+      <c r="B409">
+        <f t="shared" si="6"/>
         <v>408</v>
       </c>
-      <c r="B409">
-        <v>239.3032073974609</v>
-      </c>
-    </row>
-    <row r="410" spans="1:2">
+      <c r="C409">
+        <v>239.30320739746091</v>
+      </c>
+    </row>
+    <row r="410" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A410" s="1" t="s">
+        <v>406</v>
+      </c>
+      <c r="B410">
+        <f t="shared" si="6"/>
         <v>409</v>
       </c>
-      <c r="B410">
+      <c r="C410">
         <v>237.1898498535156</v>
       </c>
     </row>
-    <row r="411" spans="1:2">
+    <row r="411" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A411" s="1" t="s">
+        <v>407</v>
+      </c>
+      <c r="B411">
+        <f t="shared" si="6"/>
         <v>410</v>
       </c>
-      <c r="B411">
-        <v>232.8338470458984</v>
-      </c>
-    </row>
-    <row r="412" spans="1:2">
+      <c r="C411">
+        <v>232.83384704589841</v>
+      </c>
+    </row>
+    <row r="412" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A412" s="1" t="s">
+        <v>408</v>
+      </c>
+      <c r="B412">
+        <f t="shared" si="6"/>
         <v>411</v>
       </c>
-      <c r="B412">
-        <v>228.3383026123047</v>
-      </c>
-    </row>
-    <row r="413" spans="1:2">
+      <c r="C412">
+        <v>228.33830261230469</v>
+      </c>
+    </row>
+    <row r="413" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A413" s="1" t="s">
+        <v>409</v>
+      </c>
+      <c r="B413">
+        <f t="shared" si="6"/>
         <v>412</v>
       </c>
-      <c r="B413">
+      <c r="C413">
         <v>220.9263916015625</v>
       </c>
     </row>
-    <row r="414" spans="1:2">
+    <row r="414" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A414" s="1" t="s">
+        <v>410</v>
+      </c>
+      <c r="B414">
+        <f t="shared" si="6"/>
         <v>413</v>
       </c>
-      <c r="B414">
+      <c r="C414">
         <v>217.7123718261719</v>
       </c>
     </row>
-    <row r="415" spans="1:2">
+    <row r="415" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A415" s="1" t="s">
+        <v>411</v>
+      </c>
+      <c r="B415">
+        <f t="shared" si="6"/>
         <v>414</v>
       </c>
-      <c r="B415">
-        <v>214.6096343994141</v>
-      </c>
-    </row>
-    <row r="416" spans="1:2">
+      <c r="C415">
+        <v>214.60963439941409</v>
+      </c>
+    </row>
+    <row r="416" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A416" s="1" t="s">
+        <v>412</v>
+      </c>
+      <c r="B416">
+        <f t="shared" si="6"/>
         <v>415</v>
       </c>
-      <c r="B416">
+      <c r="C416">
         <v>207.339599609375</v>
       </c>
     </row>
-    <row r="417" spans="1:2">
+    <row r="417" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A417" s="1" t="s">
+        <v>413</v>
+      </c>
+      <c r="B417">
+        <f t="shared" si="6"/>
         <v>416</v>
       </c>
-      <c r="B417">
+      <c r="C417">
         <v>203.7044982910156</v>
       </c>
     </row>
-    <row r="418" spans="1:2">
+    <row r="418" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A418" s="1" t="s">
+        <v>414</v>
+      </c>
+      <c r="B418">
+        <f t="shared" si="6"/>
         <v>417</v>
       </c>
-      <c r="B418">
+      <c r="C418">
         <v>196.5917663574219</v>
       </c>
     </row>
-    <row r="419" spans="1:2">
+    <row r="419" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A419" s="1" t="s">
+        <v>415</v>
+      </c>
+      <c r="B419">
+        <f t="shared" si="6"/>
         <v>418</v>
       </c>
-      <c r="B419">
-        <v>195.4897613525391</v>
-      </c>
-    </row>
-    <row r="420" spans="1:2">
+      <c r="C419">
+        <v>195.48976135253909</v>
+      </c>
+    </row>
+    <row r="420" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A420" s="1" t="s">
+        <v>416</v>
+      </c>
+      <c r="B420">
+        <f t="shared" si="6"/>
         <v>419</v>
       </c>
-      <c r="B420">
-        <v>195.4879608154297</v>
-      </c>
-    </row>
-    <row r="421" spans="1:2">
+      <c r="C420">
+        <v>195.48796081542969</v>
+      </c>
+    </row>
+    <row r="421" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A421" s="1" t="s">
+        <v>417</v>
+      </c>
+      <c r="B421">
+        <f t="shared" si="6"/>
         <v>420</v>
       </c>
-      <c r="B421">
-        <v>176.6449737548828</v>
-      </c>
-    </row>
-    <row r="422" spans="1:2">
+      <c r="C421">
+        <v>176.64497375488281</v>
+      </c>
+    </row>
+    <row r="422" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A422" s="1" t="s">
+        <v>418</v>
+      </c>
+      <c r="B422">
+        <f t="shared" si="6"/>
         <v>421</v>
       </c>
-      <c r="B422">
-        <v>159.6595916748047</v>
-      </c>
-    </row>
-    <row r="423" spans="1:2">
+      <c r="C422">
+        <v>159.65959167480469</v>
+      </c>
+    </row>
+    <row r="423" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A423" s="1" t="s">
+        <v>419</v>
+      </c>
+      <c r="B423">
+        <f t="shared" si="6"/>
         <v>422</v>
       </c>
-      <c r="B423">
+      <c r="C423">
         <v>159.3959045410156</v>
       </c>
     </row>
-    <row r="424" spans="1:2">
+    <row r="424" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A424" s="1" t="s">
+        <v>420</v>
+      </c>
+      <c r="B424">
+        <f t="shared" si="6"/>
         <v>423</v>
       </c>
-      <c r="B424">
-        <v>155.5684967041016</v>
-      </c>
-    </row>
-    <row r="425" spans="1:2">
+      <c r="C424">
+        <v>155.56849670410159</v>
+      </c>
+    </row>
+    <row r="425" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A425" s="1" t="s">
+        <v>421</v>
+      </c>
+      <c r="B425">
+        <f t="shared" si="6"/>
         <v>424</v>
       </c>
-      <c r="B425">
-        <v>145.9670257568359</v>
-      </c>
-    </row>
-    <row r="426" spans="1:2">
+      <c r="C425">
+        <v>145.96702575683591</v>
+      </c>
+    </row>
+    <row r="426" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A426" s="1" t="s">
+        <v>422</v>
+      </c>
+      <c r="B426">
+        <f t="shared" si="6"/>
         <v>425</v>
       </c>
-      <c r="B426">
-        <v>120.1053619384766</v>
-      </c>
-    </row>
-    <row r="427" spans="1:2">
+      <c r="C426">
+        <v>120.10536193847661</v>
+      </c>
+    </row>
+    <row r="427" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A427" s="1" t="s">
+        <v>423</v>
+      </c>
+      <c r="B427">
+        <f t="shared" si="6"/>
         <v>426</v>
       </c>
-      <c r="B427">
+      <c r="C427">
         <v>113.1860427856445</v>
       </c>
     </row>
-    <row r="428" spans="1:2">
+    <row r="428" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A428" s="1" t="s">
+        <v>424</v>
+      </c>
+      <c r="B428">
+        <f t="shared" si="6"/>
         <v>427</v>
       </c>
-      <c r="B428">
+      <c r="C428">
         <v>101.0424270629883</v>
       </c>
     </row>
-    <row r="429" spans="1:2">
+    <row r="429" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A429" s="1" t="s">
+        <v>425</v>
+      </c>
+      <c r="B429">
+        <f t="shared" si="6"/>
         <v>428</v>
       </c>
-      <c r="B429">
+      <c r="C429">
         <v>87.279296875</v>
       </c>
     </row>
-    <row r="430" spans="1:2">
+    <row r="430" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A430" s="1" t="s">
+        <v>426</v>
+      </c>
+      <c r="B430">
+        <f t="shared" si="6"/>
         <v>429</v>
       </c>
-      <c r="B430">
-        <v>70.68701934814453</v>
-      </c>
-    </row>
-    <row r="431" spans="1:2">
+      <c r="C430">
+        <v>70.687019348144531</v>
+      </c>
+    </row>
+    <row r="431" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A431" s="1" t="s">
+        <v>427</v>
+      </c>
+      <c r="B431">
+        <f t="shared" si="6"/>
         <v>430</v>
       </c>
-      <c r="B431">
-        <v>62.56283569335938</v>
-      </c>
-    </row>
-    <row r="432" spans="1:2">
+      <c r="C431">
+        <v>62.562835693359382</v>
+      </c>
+    </row>
+    <row r="432" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A432" s="1" t="s">
+        <v>428</v>
+      </c>
+      <c r="B432">
+        <f t="shared" si="6"/>
         <v>431</v>
       </c>
-      <c r="B432">
-        <v>46.59381866455078</v>
-      </c>
-    </row>
-    <row r="433" spans="1:2">
+      <c r="C432">
+        <v>46.593818664550781</v>
+      </c>
+    </row>
+    <row r="433" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A433" s="1" t="s">
+        <v>429</v>
+      </c>
+      <c r="B433">
+        <f t="shared" si="6"/>
         <v>432</v>
       </c>
-      <c r="B433">
-        <v>41.50351715087891</v>
-      </c>
-    </row>
-    <row r="434" spans="1:2">
+      <c r="C433">
+        <v>41.503517150878913</v>
+      </c>
+    </row>
+    <row r="434" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A434" s="1" t="s">
+        <v>430</v>
+      </c>
+      <c r="B434">
+        <f t="shared" si="6"/>
         <v>433</v>
       </c>
-      <c r="B434">
+      <c r="C434">
         <v>-0.1124167591333389</v>
       </c>
     </row>
